--- a/database/industries/kashi/kazar/product/monthly_seprated.xlsx
+++ b/database/industries/kashi/kazar/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kazar\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kazar\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B76FCD-23FC-4BB7-8367-0F3153408580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76140CF7-8113-46E5-AC8B-C22B6C519BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="90">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -772,12 +772,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -832,7 +832,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -889,7 +889,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1001,7 +1001,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1170,7 +1170,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1382,7 +1382,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1439,7 +1439,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1526,11 +1526,11 @@
       <c r="AE11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>0</v>
+      <c r="AF11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH11" s="11" t="s">
         <v>57</v>
@@ -1544,17 +1544,17 @@
       <c r="AK11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AL11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>0</v>
+      <c r="AL11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO11" s="11" t="s">
-        <v>57</v>
+      <c r="AO11" s="11">
+        <v>0</v>
       </c>
       <c r="AP11" s="11">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1658,8 +1658,8 @@
       <c r="V12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>57</v>
+      <c r="W12" s="13">
+        <v>0</v>
       </c>
       <c r="X12" s="13">
         <v>0</v>
@@ -1685,8 +1685,8 @@
       <c r="AE12" s="13">
         <v>0</v>
       </c>
-      <c r="AF12" s="13">
-        <v>0</v>
+      <c r="AF12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AG12" s="13" t="s">
         <v>57</v>
@@ -1755,7 +1755,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1817,104 +1817,104 @@
       <c r="V13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>57</v>
+      <c r="W13" s="11">
+        <v>1877</v>
       </c>
       <c r="X13" s="11">
-        <v>1877</v>
+        <v>1998</v>
       </c>
       <c r="Y13" s="11">
-        <v>1998</v>
+        <v>2081</v>
       </c>
       <c r="Z13" s="11">
-        <v>2081</v>
+        <v>1820</v>
       </c>
       <c r="AA13" s="11">
-        <v>1820</v>
+        <v>1553</v>
       </c>
       <c r="AB13" s="11">
-        <v>1553</v>
+        <v>1724</v>
       </c>
       <c r="AC13" s="11">
-        <v>1724</v>
+        <v>1914</v>
       </c>
       <c r="AD13" s="11">
-        <v>1914</v>
+        <v>2186</v>
       </c>
       <c r="AE13" s="11">
-        <v>2186</v>
+        <v>1610</v>
       </c>
       <c r="AF13" s="11">
-        <v>1610</v>
+        <v>1599</v>
       </c>
       <c r="AG13" s="11">
-        <v>1599</v>
+        <v>1778</v>
       </c>
       <c r="AH13" s="11">
-        <v>1778</v>
+        <v>1605</v>
       </c>
       <c r="AI13" s="11">
-        <v>1605</v>
+        <v>1722</v>
       </c>
       <c r="AJ13" s="11">
-        <v>1722</v>
+        <v>1323</v>
       </c>
       <c r="AK13" s="11">
-        <v>1323</v>
+        <v>1967</v>
       </c>
       <c r="AL13" s="11">
-        <v>1967</v>
+        <v>732</v>
       </c>
       <c r="AM13" s="11">
-        <v>732</v>
+        <v>1307</v>
       </c>
       <c r="AN13" s="11">
-        <v>1307</v>
+        <v>1122</v>
       </c>
       <c r="AO13" s="11">
-        <v>1122</v>
+        <v>1817</v>
       </c>
       <c r="AP13" s="11">
+        <v>1720</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>1413</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>1917</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>1559</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>1545</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>592</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>987</v>
+      </c>
+      <c r="AW13" s="11">
         <v>1817</v>
       </c>
-      <c r="AQ13" s="11">
-        <v>1720</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>1413</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>1917</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>1559</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>1545</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>592</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>987</v>
-      </c>
       <c r="AX13" s="11">
-        <v>1817</v>
+        <v>1735</v>
       </c>
       <c r="AY13" s="11">
-        <v>1735</v>
+        <v>1745</v>
       </c>
       <c r="AZ13" s="11">
-        <v>1745</v>
+        <v>1709</v>
       </c>
       <c r="BA13" s="11">
-        <v>1709</v>
+        <v>1219</v>
       </c>
       <c r="BB13" s="11">
-        <v>1219</v>
+        <v>955</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1976,104 +1976,104 @@
       <c r="V14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>57</v>
+      <c r="W14" s="13">
+        <v>3132</v>
       </c>
       <c r="X14" s="13">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="Y14" s="13">
-        <v>3133</v>
+        <v>3214</v>
       </c>
       <c r="Z14" s="13">
-        <v>3214</v>
+        <v>2640</v>
       </c>
       <c r="AA14" s="13">
-        <v>2640</v>
+        <v>2361</v>
       </c>
       <c r="AB14" s="13">
-        <v>2361</v>
+        <v>3294</v>
       </c>
       <c r="AC14" s="13">
-        <v>3294</v>
+        <v>1913</v>
       </c>
       <c r="AD14" s="13">
-        <v>1913</v>
+        <v>1843</v>
       </c>
       <c r="AE14" s="13">
-        <v>1843</v>
+        <v>2896</v>
       </c>
       <c r="AF14" s="13">
-        <v>2896</v>
+        <v>3006</v>
       </c>
       <c r="AG14" s="13">
-        <v>3006</v>
+        <v>3390</v>
       </c>
       <c r="AH14" s="13">
-        <v>3390</v>
+        <v>2806</v>
       </c>
       <c r="AI14" s="13">
-        <v>2806</v>
+        <v>1832</v>
       </c>
       <c r="AJ14" s="13">
-        <v>1832</v>
+        <v>1464</v>
       </c>
       <c r="AK14" s="13">
-        <v>1464</v>
+        <v>2174</v>
       </c>
       <c r="AL14" s="13">
-        <v>2174</v>
+        <v>1752</v>
       </c>
       <c r="AM14" s="13">
-        <v>1752</v>
+        <v>1457</v>
       </c>
       <c r="AN14" s="13">
-        <v>1457</v>
+        <v>1250</v>
       </c>
       <c r="AO14" s="13">
-        <v>1250</v>
+        <v>992</v>
       </c>
       <c r="AP14" s="13">
-        <v>992</v>
+        <v>1360</v>
       </c>
       <c r="AQ14" s="13">
-        <v>1360</v>
+        <v>1066</v>
       </c>
       <c r="AR14" s="13">
-        <v>1066</v>
+        <v>1731</v>
       </c>
       <c r="AS14" s="13">
-        <v>1731</v>
+        <v>1452</v>
       </c>
       <c r="AT14" s="13">
-        <v>1452</v>
+        <v>941</v>
       </c>
       <c r="AU14" s="13">
-        <v>941</v>
+        <v>736</v>
       </c>
       <c r="AV14" s="13">
-        <v>736</v>
+        <v>837</v>
       </c>
       <c r="AW14" s="13">
-        <v>837</v>
+        <v>779</v>
       </c>
       <c r="AX14" s="13">
-        <v>779</v>
+        <v>1094</v>
       </c>
       <c r="AY14" s="13">
-        <v>1094</v>
+        <v>1727</v>
       </c>
       <c r="AZ14" s="13">
-        <v>1727</v>
+        <v>2018</v>
       </c>
       <c r="BA14" s="13">
-        <v>2018</v>
+        <v>911</v>
       </c>
       <c r="BB14" s="13">
-        <v>911</v>
+        <v>745</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2186,53 +2186,53 @@
       <c r="AM15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN15" s="11" t="s">
-        <v>57</v>
+      <c r="AN15" s="11">
+        <v>1032</v>
       </c>
       <c r="AO15" s="11">
-        <v>1032</v>
+        <v>1836</v>
       </c>
       <c r="AP15" s="11">
-        <v>1836</v>
+        <v>1864</v>
       </c>
       <c r="AQ15" s="11">
-        <v>1864</v>
+        <v>1769</v>
       </c>
       <c r="AR15" s="11">
-        <v>1769</v>
+        <v>1160</v>
       </c>
       <c r="AS15" s="11">
-        <v>1160</v>
+        <v>1415</v>
       </c>
       <c r="AT15" s="11">
-        <v>1415</v>
+        <v>1490</v>
       </c>
       <c r="AU15" s="11">
-        <v>1490</v>
+        <v>364</v>
       </c>
       <c r="AV15" s="11">
-        <v>364</v>
+        <v>1796</v>
       </c>
       <c r="AW15" s="11">
-        <v>1796</v>
+        <v>1634</v>
       </c>
       <c r="AX15" s="11">
-        <v>1634</v>
+        <v>1310</v>
       </c>
       <c r="AY15" s="11">
-        <v>1310</v>
+        <v>422</v>
       </c>
       <c r="AZ15" s="11">
-        <v>422</v>
+        <v>156</v>
       </c>
       <c r="BA15" s="11">
-        <v>156</v>
+        <v>1948</v>
       </c>
       <c r="BB15" s="11">
-        <v>1948</v>
+        <v>504</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>63</v>
       </c>
@@ -2293,103 +2293,103 @@
         <v>0</v>
       </c>
       <c r="W16" s="15">
-        <v>0</v>
+        <v>5009</v>
       </c>
       <c r="X16" s="15">
-        <v>5009</v>
+        <v>5131</v>
       </c>
       <c r="Y16" s="15">
-        <v>5131</v>
+        <v>5295</v>
       </c>
       <c r="Z16" s="15">
-        <v>5295</v>
+        <v>4460</v>
       </c>
       <c r="AA16" s="15">
-        <v>4460</v>
+        <v>3914</v>
       </c>
       <c r="AB16" s="15">
-        <v>3914</v>
+        <v>5018</v>
       </c>
       <c r="AC16" s="15">
-        <v>5018</v>
+        <v>3827</v>
       </c>
       <c r="AD16" s="15">
-        <v>3827</v>
+        <v>4029</v>
       </c>
       <c r="AE16" s="15">
-        <v>4029</v>
+        <v>4506</v>
       </c>
       <c r="AF16" s="15">
-        <v>4506</v>
+        <v>4605</v>
       </c>
       <c r="AG16" s="15">
-        <v>4605</v>
+        <v>5168</v>
       </c>
       <c r="AH16" s="15">
-        <v>5168</v>
+        <v>4411</v>
       </c>
       <c r="AI16" s="15">
-        <v>4411</v>
+        <v>3554</v>
       </c>
       <c r="AJ16" s="15">
-        <v>3554</v>
+        <v>2787</v>
       </c>
       <c r="AK16" s="15">
-        <v>2787</v>
+        <v>4141</v>
       </c>
       <c r="AL16" s="15">
-        <v>4141</v>
+        <v>2484</v>
       </c>
       <c r="AM16" s="15">
-        <v>2484</v>
+        <v>2764</v>
       </c>
       <c r="AN16" s="15">
-        <v>2764</v>
+        <v>3404</v>
       </c>
       <c r="AO16" s="15">
-        <v>3404</v>
+        <v>4645</v>
       </c>
       <c r="AP16" s="15">
-        <v>4645</v>
+        <v>4944</v>
       </c>
       <c r="AQ16" s="15">
-        <v>4944</v>
+        <v>4248</v>
       </c>
       <c r="AR16" s="15">
-        <v>4248</v>
+        <v>4808</v>
       </c>
       <c r="AS16" s="15">
-        <v>4808</v>
+        <v>4426</v>
       </c>
       <c r="AT16" s="15">
-        <v>4426</v>
+        <v>3976</v>
       </c>
       <c r="AU16" s="15">
-        <v>3976</v>
+        <v>1692</v>
       </c>
       <c r="AV16" s="15">
-        <v>1692</v>
+        <v>3620</v>
       </c>
       <c r="AW16" s="15">
-        <v>3620</v>
+        <v>4230</v>
       </c>
       <c r="AX16" s="15">
-        <v>4230</v>
+        <v>4139</v>
       </c>
       <c r="AY16" s="15">
-        <v>4139</v>
+        <v>3894</v>
       </c>
       <c r="AZ16" s="15">
-        <v>3894</v>
+        <v>3883</v>
       </c>
       <c r="BA16" s="15">
-        <v>3883</v>
+        <v>4078</v>
       </c>
       <c r="BB16" s="15">
-        <v>4078</v>
+        <v>2204</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>64</v>
       </c>
@@ -2446,7 +2446,7 @@
       <c r="BA17" s="9"/>
       <c r="BB17" s="9"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>60</v>
       </c>
@@ -2535,11 +2535,11 @@
       <c r="AE18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF18" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG18" s="11">
-        <v>0</v>
+      <c r="AF18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH18" s="11" t="s">
         <v>57</v>
@@ -2565,14 +2565,14 @@
       <c r="AO18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP18" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="11" t="s">
-        <v>57</v>
+      <c r="AP18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR18" s="11">
+        <v>0</v>
       </c>
       <c r="AS18" s="11">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>61</v>
       </c>
@@ -2694,11 +2694,11 @@
       <c r="AE19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF19" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG19" s="13">
-        <v>0</v>
+      <c r="AF19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH19" s="13" t="s">
         <v>57</v>
@@ -2724,14 +2724,14 @@
       <c r="AO19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP19" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="13" t="s">
-        <v>57</v>
+      <c r="AP19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR19" s="13">
+        <v>0</v>
       </c>
       <c r="AS19" s="13">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>65</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>66</v>
       </c>
@@ -2978,7 +2978,7 @@
       <c r="BA21" s="9"/>
       <c r="BB21" s="9"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>56</v>
       </c>
@@ -3065,11 +3065,11 @@
       <c r="AE22" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF22" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG22" s="11">
-        <v>0</v>
+      <c r="AF22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH22" s="11" t="s">
         <v>57</v>
@@ -3095,11 +3095,11 @@
       <c r="AO22" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP22" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ22" s="11">
-        <v>0</v>
+      <c r="AP22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR22" s="11" t="s">
         <v>57</v>
@@ -3135,7 +3135,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>67</v>
       </c>
@@ -3222,11 +3222,11 @@
       <c r="AE23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF23" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG23" s="13">
-        <v>0</v>
+      <c r="AF23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH23" s="13" t="s">
         <v>57</v>
@@ -3252,11 +3252,11 @@
       <c r="AO23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP23" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ23" s="13">
-        <v>0</v>
+      <c r="AP23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR23" s="13" t="s">
         <v>57</v>
@@ -3292,7 +3292,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>68</v>
       </c>
@@ -3352,8 +3352,8 @@
       <c r="V24" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W24" s="17" t="s">
-        <v>57</v>
+      <c r="W24" s="17">
+        <v>0</v>
       </c>
       <c r="X24" s="17">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>69</v>
       </c>
@@ -3510,103 +3510,103 @@
         <v>0</v>
       </c>
       <c r="W25" s="15">
-        <v>0</v>
+        <v>5009</v>
       </c>
       <c r="X25" s="15">
-        <v>5009</v>
+        <v>5131</v>
       </c>
       <c r="Y25" s="15">
-        <v>5131</v>
+        <v>5295</v>
       </c>
       <c r="Z25" s="15">
-        <v>5295</v>
+        <v>4460</v>
       </c>
       <c r="AA25" s="15">
-        <v>4460</v>
+        <v>3914</v>
       </c>
       <c r="AB25" s="15">
-        <v>3914</v>
+        <v>5018</v>
       </c>
       <c r="AC25" s="15">
-        <v>5018</v>
+        <v>3827</v>
       </c>
       <c r="AD25" s="15">
-        <v>3827</v>
+        <v>4029</v>
       </c>
       <c r="AE25" s="15">
-        <v>4029</v>
+        <v>4506</v>
       </c>
       <c r="AF25" s="15">
-        <v>4506</v>
+        <v>4605</v>
       </c>
       <c r="AG25" s="15">
-        <v>4605</v>
+        <v>5168</v>
       </c>
       <c r="AH25" s="15">
-        <v>5168</v>
+        <v>4411</v>
       </c>
       <c r="AI25" s="15">
-        <v>4411</v>
+        <v>3554</v>
       </c>
       <c r="AJ25" s="15">
-        <v>3554</v>
+        <v>2787</v>
       </c>
       <c r="AK25" s="15">
-        <v>2787</v>
+        <v>4141</v>
       </c>
       <c r="AL25" s="15">
-        <v>4141</v>
+        <v>2484</v>
       </c>
       <c r="AM25" s="15">
-        <v>2484</v>
+        <v>2764</v>
       </c>
       <c r="AN25" s="15">
-        <v>2764</v>
+        <v>3404</v>
       </c>
       <c r="AO25" s="15">
-        <v>3404</v>
+        <v>4645</v>
       </c>
       <c r="AP25" s="15">
-        <v>4645</v>
+        <v>4944</v>
       </c>
       <c r="AQ25" s="15">
-        <v>4944</v>
+        <v>4248</v>
       </c>
       <c r="AR25" s="15">
-        <v>4248</v>
+        <v>4808</v>
       </c>
       <c r="AS25" s="15">
-        <v>4808</v>
+        <v>4426</v>
       </c>
       <c r="AT25" s="15">
-        <v>4426</v>
+        <v>3976</v>
       </c>
       <c r="AU25" s="15">
-        <v>3976</v>
+        <v>1692</v>
       </c>
       <c r="AV25" s="15">
-        <v>1692</v>
+        <v>3620</v>
       </c>
       <c r="AW25" s="15">
-        <v>3620</v>
+        <v>4230</v>
       </c>
       <c r="AX25" s="15">
-        <v>4230</v>
+        <v>4139</v>
       </c>
       <c r="AY25" s="15">
-        <v>4139</v>
+        <v>3894</v>
       </c>
       <c r="AZ25" s="15">
-        <v>3894</v>
+        <v>3883</v>
       </c>
       <c r="BA25" s="15">
-        <v>3883</v>
+        <v>4078</v>
       </c>
       <c r="BB25" s="15">
-        <v>4078</v>
+        <v>2204</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3661,7 +3661,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3716,7 +3716,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3771,7 +3771,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>70</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3983,7 +3983,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>71</v>
       </c>
@@ -4040,7 +4040,7 @@
       <c r="BA31" s="9"/>
       <c r="BB31" s="9"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>56</v>
       </c>
@@ -4127,11 +4127,11 @@
       <c r="AE32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG32" s="11">
-        <v>0</v>
+      <c r="AF32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH32" s="11" t="s">
         <v>57</v>
@@ -4139,23 +4139,23 @@
       <c r="AI32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ32" s="11" t="s">
-        <v>57</v>
+      <c r="AJ32" s="11">
+        <v>189</v>
       </c>
       <c r="AK32" s="11">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="AL32" s="11">
-        <v>55</v>
-      </c>
-      <c r="AM32" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AM32" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO32" s="11" t="s">
-        <v>57</v>
+      <c r="AO32" s="11">
+        <v>0</v>
       </c>
       <c r="AP32" s="11">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>58</v>
       </c>
@@ -4259,8 +4259,8 @@
       <c r="V33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W33" s="13" t="s">
-        <v>57</v>
+      <c r="W33" s="13">
+        <v>0</v>
       </c>
       <c r="X33" s="13">
         <v>0</v>
@@ -4286,8 +4286,8 @@
       <c r="AE33" s="13">
         <v>0</v>
       </c>
-      <c r="AF33" s="13">
-        <v>0</v>
+      <c r="AF33" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AG33" s="13" t="s">
         <v>57</v>
@@ -4356,7 +4356,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>60</v>
       </c>
@@ -4418,104 +4418,104 @@
       <c r="V34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W34" s="11" t="s">
-        <v>57</v>
+      <c r="W34" s="11">
+        <v>2286</v>
       </c>
       <c r="X34" s="11">
-        <v>2286</v>
+        <v>1728</v>
       </c>
       <c r="Y34" s="11">
-        <v>1728</v>
+        <v>2059</v>
       </c>
       <c r="Z34" s="11">
-        <v>2059</v>
+        <v>1906</v>
       </c>
       <c r="AA34" s="11">
-        <v>1906</v>
+        <v>1664</v>
       </c>
       <c r="AB34" s="11">
-        <v>1664</v>
+        <v>1632</v>
       </c>
       <c r="AC34" s="11">
-        <v>1632</v>
+        <v>2038</v>
       </c>
       <c r="AD34" s="11">
-        <v>2038</v>
+        <v>1995</v>
       </c>
       <c r="AE34" s="11">
-        <v>1995</v>
+        <v>1734</v>
       </c>
       <c r="AF34" s="11">
-        <v>1734</v>
+        <v>1529</v>
       </c>
       <c r="AG34" s="11">
-        <v>1529</v>
+        <v>1506</v>
       </c>
       <c r="AH34" s="11">
-        <v>1506</v>
+        <v>2083</v>
       </c>
       <c r="AI34" s="11">
-        <v>2083</v>
+        <v>1564</v>
       </c>
       <c r="AJ34" s="11">
-        <v>1564</v>
+        <v>1165</v>
       </c>
       <c r="AK34" s="11">
-        <v>1165</v>
+        <v>1685</v>
       </c>
       <c r="AL34" s="11">
-        <v>1685</v>
+        <v>895</v>
       </c>
       <c r="AM34" s="11">
-        <v>895</v>
+        <v>1453</v>
       </c>
       <c r="AN34" s="11">
-        <v>1453</v>
+        <v>1201</v>
       </c>
       <c r="AO34" s="11">
-        <v>1201</v>
+        <v>1451</v>
       </c>
       <c r="AP34" s="11">
-        <v>1451</v>
+        <v>1496</v>
       </c>
       <c r="AQ34" s="11">
-        <v>1496</v>
+        <v>2242</v>
       </c>
       <c r="AR34" s="11">
-        <v>2242</v>
+        <v>1562</v>
       </c>
       <c r="AS34" s="11">
-        <v>1562</v>
+        <v>1580</v>
       </c>
       <c r="AT34" s="11">
-        <v>1580</v>
+        <v>1279</v>
       </c>
       <c r="AU34" s="11">
-        <v>1279</v>
+        <v>910</v>
       </c>
       <c r="AV34" s="11">
-        <v>910</v>
+        <v>996</v>
       </c>
       <c r="AW34" s="11">
-        <v>996</v>
+        <v>1866</v>
       </c>
       <c r="AX34" s="11">
-        <v>1866</v>
+        <v>1722</v>
       </c>
       <c r="AY34" s="11">
-        <v>1722</v>
+        <v>1616</v>
       </c>
       <c r="AZ34" s="11">
-        <v>1616</v>
+        <v>1363</v>
       </c>
       <c r="BA34" s="11">
-        <v>1363</v>
+        <v>929</v>
       </c>
       <c r="BB34" s="11">
-        <v>929</v>
+        <v>1029</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>61</v>
       </c>
@@ -4577,104 +4577,104 @@
       <c r="V35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W35" s="13" t="s">
-        <v>57</v>
+      <c r="W35" s="13">
+        <v>2912</v>
       </c>
       <c r="X35" s="13">
-        <v>2912</v>
+        <v>3247</v>
       </c>
       <c r="Y35" s="13">
-        <v>3247</v>
+        <v>2939</v>
       </c>
       <c r="Z35" s="13">
-        <v>2939</v>
+        <v>2606</v>
       </c>
       <c r="AA35" s="13">
-        <v>2606</v>
+        <v>2382</v>
       </c>
       <c r="AB35" s="13">
-        <v>2382</v>
+        <v>2721</v>
       </c>
       <c r="AC35" s="13">
-        <v>2721</v>
+        <v>2462</v>
       </c>
       <c r="AD35" s="13">
-        <v>2462</v>
+        <v>1586</v>
       </c>
       <c r="AE35" s="13">
-        <v>1586</v>
+        <v>2729</v>
       </c>
       <c r="AF35" s="13">
-        <v>2729</v>
+        <v>3122</v>
       </c>
       <c r="AG35" s="13">
-        <v>3122</v>
+        <v>3573</v>
       </c>
       <c r="AH35" s="13">
-        <v>3573</v>
+        <v>2442</v>
       </c>
       <c r="AI35" s="13">
-        <v>2442</v>
+        <v>2152</v>
       </c>
       <c r="AJ35" s="13">
-        <v>2152</v>
+        <v>1232</v>
       </c>
       <c r="AK35" s="13">
-        <v>1232</v>
+        <v>2961</v>
       </c>
       <c r="AL35" s="13">
-        <v>2961</v>
+        <v>1799</v>
       </c>
       <c r="AM35" s="13">
-        <v>1799</v>
+        <v>1458</v>
       </c>
       <c r="AN35" s="13">
-        <v>1458</v>
+        <v>1312</v>
       </c>
       <c r="AO35" s="13">
-        <v>1312</v>
+        <v>1028</v>
       </c>
       <c r="AP35" s="13">
-        <v>1028</v>
+        <v>985</v>
       </c>
       <c r="AQ35" s="13">
-        <v>985</v>
+        <v>1412</v>
       </c>
       <c r="AR35" s="13">
-        <v>1412</v>
+        <v>1381</v>
       </c>
       <c r="AS35" s="13">
-        <v>1381</v>
+        <v>1332</v>
       </c>
       <c r="AT35" s="13">
-        <v>1332</v>
+        <v>1292</v>
       </c>
       <c r="AU35" s="13">
-        <v>1292</v>
+        <v>586</v>
       </c>
       <c r="AV35" s="13">
-        <v>586</v>
+        <v>715</v>
       </c>
       <c r="AW35" s="13">
-        <v>715</v>
+        <v>1016</v>
       </c>
       <c r="AX35" s="13">
-        <v>1016</v>
+        <v>1406</v>
       </c>
       <c r="AY35" s="13">
-        <v>1406</v>
+        <v>1167</v>
       </c>
       <c r="AZ35" s="13">
-        <v>1167</v>
+        <v>1696</v>
       </c>
       <c r="BA35" s="13">
-        <v>1696</v>
+        <v>685</v>
       </c>
       <c r="BB35" s="13">
-        <v>685</v>
+        <v>1131</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>62</v>
       </c>
@@ -4787,53 +4787,53 @@
       <c r="AM36" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN36" s="11" t="s">
-        <v>57</v>
+      <c r="AN36" s="11">
+        <v>992</v>
       </c>
       <c r="AO36" s="11">
-        <v>992</v>
+        <v>1650</v>
       </c>
       <c r="AP36" s="11">
-        <v>1650</v>
+        <v>1959</v>
       </c>
       <c r="AQ36" s="11">
-        <v>1959</v>
+        <v>1628</v>
       </c>
       <c r="AR36" s="11">
-        <v>1628</v>
+        <v>1161</v>
       </c>
       <c r="AS36" s="11">
-        <v>1161</v>
+        <v>1312</v>
       </c>
       <c r="AT36" s="11">
-        <v>1312</v>
+        <v>1513</v>
       </c>
       <c r="AU36" s="11">
-        <v>1513</v>
+        <v>657</v>
       </c>
       <c r="AV36" s="11">
-        <v>657</v>
+        <v>1510</v>
       </c>
       <c r="AW36" s="11">
-        <v>1510</v>
+        <v>1499</v>
       </c>
       <c r="AX36" s="11">
-        <v>1499</v>
+        <v>1383</v>
       </c>
       <c r="AY36" s="11">
-        <v>1383</v>
+        <v>44</v>
       </c>
       <c r="AZ36" s="11">
-        <v>44</v>
+        <v>579</v>
       </c>
       <c r="BA36" s="11">
-        <v>579</v>
+        <v>1632</v>
       </c>
       <c r="BB36" s="11">
-        <v>1632</v>
+        <v>586</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>72</v>
       </c>
@@ -4894,103 +4894,103 @@
         <v>0</v>
       </c>
       <c r="W37" s="15">
-        <v>0</v>
+        <v>5198</v>
       </c>
       <c r="X37" s="15">
-        <v>5198</v>
+        <v>4975</v>
       </c>
       <c r="Y37" s="15">
-        <v>4975</v>
+        <v>4998</v>
       </c>
       <c r="Z37" s="15">
-        <v>4998</v>
+        <v>4512</v>
       </c>
       <c r="AA37" s="15">
-        <v>4512</v>
+        <v>4046</v>
       </c>
       <c r="AB37" s="15">
-        <v>4046</v>
+        <v>4353</v>
       </c>
       <c r="AC37" s="15">
-        <v>4353</v>
+        <v>4500</v>
       </c>
       <c r="AD37" s="15">
-        <v>4500</v>
+        <v>3581</v>
       </c>
       <c r="AE37" s="15">
-        <v>3581</v>
+        <v>4463</v>
       </c>
       <c r="AF37" s="15">
-        <v>4463</v>
+        <v>4651</v>
       </c>
       <c r="AG37" s="15">
-        <v>4651</v>
+        <v>5079</v>
       </c>
       <c r="AH37" s="15">
-        <v>5079</v>
+        <v>4525</v>
       </c>
       <c r="AI37" s="15">
-        <v>4525</v>
+        <v>3716</v>
       </c>
       <c r="AJ37" s="15">
-        <v>3716</v>
+        <v>2586</v>
       </c>
       <c r="AK37" s="15">
-        <v>2586</v>
+        <v>4701</v>
       </c>
       <c r="AL37" s="15">
-        <v>4701</v>
+        <v>2694</v>
       </c>
       <c r="AM37" s="15">
-        <v>2694</v>
+        <v>2911</v>
       </c>
       <c r="AN37" s="15">
-        <v>2911</v>
+        <v>3505</v>
       </c>
       <c r="AO37" s="15">
-        <v>3505</v>
+        <v>4129</v>
       </c>
       <c r="AP37" s="15">
-        <v>4129</v>
+        <v>4440</v>
       </c>
       <c r="AQ37" s="15">
-        <v>4440</v>
+        <v>5282</v>
       </c>
       <c r="AR37" s="15">
-        <v>5282</v>
+        <v>4104</v>
       </c>
       <c r="AS37" s="15">
-        <v>4104</v>
+        <v>4224</v>
       </c>
       <c r="AT37" s="15">
-        <v>4224</v>
+        <v>4084</v>
       </c>
       <c r="AU37" s="15">
-        <v>4084</v>
+        <v>2153</v>
       </c>
       <c r="AV37" s="15">
-        <v>2153</v>
+        <v>3221</v>
       </c>
       <c r="AW37" s="15">
-        <v>3221</v>
+        <v>4381</v>
       </c>
       <c r="AX37" s="15">
-        <v>4381</v>
+        <v>4511</v>
       </c>
       <c r="AY37" s="15">
-        <v>4511</v>
+        <v>2827</v>
       </c>
       <c r="AZ37" s="15">
-        <v>2827</v>
+        <v>3638</v>
       </c>
       <c r="BA37" s="15">
-        <v>3638</v>
+        <v>3246</v>
       </c>
       <c r="BB37" s="15">
-        <v>3246</v>
+        <v>2746</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>73</v>
       </c>
@@ -5047,7 +5047,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>60</v>
       </c>
@@ -5136,11 +5136,11 @@
       <c r="AE39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG39" s="11">
-        <v>0</v>
+      <c r="AF39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH39" s="11" t="s">
         <v>57</v>
@@ -5166,14 +5166,14 @@
       <c r="AO39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR39" s="11" t="s">
-        <v>57</v>
+      <c r="AP39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR39" s="11">
+        <v>0</v>
       </c>
       <c r="AS39" s="11">
         <v>0</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -5295,11 +5295,11 @@
       <c r="AE40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG40" s="13">
-        <v>0</v>
+      <c r="AF40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH40" s="13" t="s">
         <v>57</v>
@@ -5325,14 +5325,14 @@
       <c r="AO40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR40" s="13" t="s">
-        <v>57</v>
+      <c r="AP40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR40" s="13">
+        <v>0</v>
       </c>
       <c r="AS40" s="13">
         <v>0</v>
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>74</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>66</v>
       </c>
@@ -5579,7 +5579,7 @@
       <c r="BA42" s="9"/>
       <c r="BB42" s="9"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>56</v>
       </c>
@@ -5666,11 +5666,11 @@
       <c r="AE43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG43" s="11">
-        <v>0</v>
+      <c r="AF43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH43" s="11" t="s">
         <v>57</v>
@@ -5696,11 +5696,11 @@
       <c r="AO43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ43" s="11">
-        <v>0</v>
+      <c r="AP43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR43" s="11" t="s">
         <v>57</v>
@@ -5736,7 +5736,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>67</v>
       </c>
@@ -5823,11 +5823,11 @@
       <c r="AE44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF44" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG44" s="13">
-        <v>0</v>
+      <c r="AF44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH44" s="13" t="s">
         <v>57</v>
@@ -5853,11 +5853,11 @@
       <c r="AO44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP44" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ44" s="13">
-        <v>0</v>
+      <c r="AP44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR44" s="13" t="s">
         <v>57</v>
@@ -5893,7 +5893,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>68</v>
       </c>
@@ -5953,8 +5953,8 @@
       <c r="V45" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W45" s="17" t="s">
-        <v>57</v>
+      <c r="W45" s="17">
+        <v>0</v>
       </c>
       <c r="X45" s="17">
         <v>0</v>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>75</v>
       </c>
@@ -6107,7 +6107,7 @@
       <c r="BA46" s="19"/>
       <c r="BB46" s="19"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>76</v>
       </c>
@@ -6167,8 +6167,8 @@
       <c r="V47" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W47" s="17" t="s">
-        <v>57</v>
+      <c r="W47" s="17">
+        <v>0</v>
       </c>
       <c r="X47" s="17">
         <v>0</v>
@@ -6264,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
         <v>69</v>
       </c>
@@ -6325,103 +6325,103 @@
         <v>0</v>
       </c>
       <c r="W48" s="15">
-        <v>0</v>
+        <v>5198</v>
       </c>
       <c r="X48" s="15">
-        <v>5198</v>
+        <v>4975</v>
       </c>
       <c r="Y48" s="15">
-        <v>4975</v>
+        <v>4998</v>
       </c>
       <c r="Z48" s="15">
-        <v>4998</v>
+        <v>4512</v>
       </c>
       <c r="AA48" s="15">
-        <v>4512</v>
+        <v>4046</v>
       </c>
       <c r="AB48" s="15">
-        <v>4046</v>
+        <v>4353</v>
       </c>
       <c r="AC48" s="15">
-        <v>4353</v>
+        <v>4500</v>
       </c>
       <c r="AD48" s="15">
-        <v>4500</v>
+        <v>3581</v>
       </c>
       <c r="AE48" s="15">
-        <v>3581</v>
+        <v>4463</v>
       </c>
       <c r="AF48" s="15">
-        <v>4463</v>
+        <v>4651</v>
       </c>
       <c r="AG48" s="15">
-        <v>4651</v>
+        <v>5079</v>
       </c>
       <c r="AH48" s="15">
-        <v>5079</v>
+        <v>4525</v>
       </c>
       <c r="AI48" s="15">
-        <v>4525</v>
+        <v>3716</v>
       </c>
       <c r="AJ48" s="15">
-        <v>3716</v>
+        <v>2586</v>
       </c>
       <c r="AK48" s="15">
-        <v>2586</v>
+        <v>4701</v>
       </c>
       <c r="AL48" s="15">
-        <v>4701</v>
+        <v>2694</v>
       </c>
       <c r="AM48" s="15">
-        <v>2694</v>
+        <v>2911</v>
       </c>
       <c r="AN48" s="15">
-        <v>2911</v>
+        <v>3505</v>
       </c>
       <c r="AO48" s="15">
-        <v>3505</v>
+        <v>4129</v>
       </c>
       <c r="AP48" s="15">
-        <v>4129</v>
+        <v>4440</v>
       </c>
       <c r="AQ48" s="15">
-        <v>4440</v>
+        <v>5282</v>
       </c>
       <c r="AR48" s="15">
-        <v>5282</v>
+        <v>4104</v>
       </c>
       <c r="AS48" s="15">
-        <v>4104</v>
+        <v>4224</v>
       </c>
       <c r="AT48" s="15">
-        <v>4224</v>
+        <v>4084</v>
       </c>
       <c r="AU48" s="15">
-        <v>4084</v>
+        <v>2153</v>
       </c>
       <c r="AV48" s="15">
-        <v>2153</v>
+        <v>3221</v>
       </c>
       <c r="AW48" s="15">
-        <v>3221</v>
+        <v>4381</v>
       </c>
       <c r="AX48" s="15">
-        <v>4381</v>
+        <v>4511</v>
       </c>
       <c r="AY48" s="15">
-        <v>4511</v>
+        <v>2827</v>
       </c>
       <c r="AZ48" s="15">
-        <v>2827</v>
+        <v>3638</v>
       </c>
       <c r="BA48" s="15">
-        <v>3638</v>
+        <v>3246</v>
       </c>
       <c r="BB48" s="15">
-        <v>3246</v>
+        <v>2746</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6476,7 +6476,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6531,7 +6531,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6586,7 +6586,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>77</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6798,7 +6798,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>78</v>
       </c>
@@ -6855,7 +6855,7 @@
       <c r="BA54" s="9"/>
       <c r="BB54" s="9"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>56</v>
       </c>
@@ -6944,77 +6944,77 @@
       <c r="AE55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF55" s="11" t="s">
-        <v>57</v>
+      <c r="AF55" s="11">
+        <v>0</v>
       </c>
       <c r="AG55" s="11">
         <v>0</v>
       </c>
       <c r="AH55" s="11">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="AI55" s="11">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="AJ55" s="11">
-        <v>0</v>
+        <v>3209</v>
       </c>
       <c r="AK55" s="11">
-        <v>3209</v>
+        <v>699</v>
       </c>
       <c r="AL55" s="11">
-        <v>699</v>
+        <v>2268</v>
       </c>
       <c r="AM55" s="11">
-        <v>2268</v>
+        <v>67</v>
       </c>
       <c r="AN55" s="11">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="AO55" s="11">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="AP55" s="11">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="AQ55" s="11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AR55" s="11">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="AS55" s="11">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AT55" s="11">
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="AU55" s="11">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AV55" s="11">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AW55" s="11">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="AX55" s="11">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="AY55" s="11">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AZ55" s="11">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="BA55" s="11">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="BB55" s="11">
-        <v>13</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>58</v>
       </c>
@@ -7076,36 +7076,36 @@
       <c r="V56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W56" s="13" t="s">
-        <v>57</v>
+      <c r="W56" s="13">
+        <v>0</v>
       </c>
       <c r="X56" s="13">
-        <v>0</v>
+        <v>23500</v>
       </c>
       <c r="Y56" s="13">
-        <v>23500</v>
+        <v>17</v>
       </c>
       <c r="Z56" s="13">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AA56" s="13">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="AB56" s="13">
-        <v>107</v>
+        <v>8360</v>
       </c>
       <c r="AC56" s="13">
-        <v>8360</v>
+        <v>1878</v>
       </c>
       <c r="AD56" s="13">
-        <v>1878</v>
+        <v>56</v>
       </c>
       <c r="AE56" s="13">
-        <v>56</v>
-      </c>
-      <c r="AF56" s="13">
         <v>80</v>
       </c>
+      <c r="AF56" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AG56" s="13" t="s">
         <v>57</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>60</v>
       </c>
@@ -7235,104 +7235,104 @@
       <c r="V57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W57" s="11" t="s">
-        <v>57</v>
+      <c r="W57" s="11">
+        <v>95548</v>
       </c>
       <c r="X57" s="11">
-        <v>95548</v>
+        <v>82113</v>
       </c>
       <c r="Y57" s="11">
-        <v>82113</v>
+        <v>96648</v>
       </c>
       <c r="Z57" s="11">
-        <v>96648</v>
+        <v>93449</v>
       </c>
       <c r="AA57" s="11">
-        <v>93449</v>
+        <v>78069</v>
       </c>
       <c r="AB57" s="11">
-        <v>78069</v>
+        <v>87642</v>
       </c>
       <c r="AC57" s="11">
-        <v>87642</v>
+        <v>113109</v>
       </c>
       <c r="AD57" s="11">
-        <v>113109</v>
+        <v>106505</v>
       </c>
       <c r="AE57" s="11">
-        <v>106505</v>
+        <v>88485</v>
       </c>
       <c r="AF57" s="11">
-        <v>88485</v>
+        <v>100316</v>
       </c>
       <c r="AG57" s="11">
-        <v>100316</v>
+        <v>121252</v>
       </c>
       <c r="AH57" s="11">
-        <v>121252</v>
+        <v>163838</v>
       </c>
       <c r="AI57" s="11">
-        <v>163838</v>
+        <v>132081</v>
       </c>
       <c r="AJ57" s="11">
-        <v>132081</v>
+        <v>93840</v>
       </c>
       <c r="AK57" s="11">
-        <v>93840</v>
+        <v>144235</v>
       </c>
       <c r="AL57" s="11">
-        <v>144235</v>
+        <v>84545</v>
       </c>
       <c r="AM57" s="11">
-        <v>84545</v>
+        <v>112058</v>
       </c>
       <c r="AN57" s="11">
-        <v>112058</v>
+        <v>121188</v>
       </c>
       <c r="AO57" s="11">
-        <v>121188</v>
+        <v>205854</v>
       </c>
       <c r="AP57" s="11">
-        <v>205854</v>
+        <v>198388</v>
       </c>
       <c r="AQ57" s="11">
-        <v>198388</v>
+        <v>247488</v>
       </c>
       <c r="AR57" s="11">
-        <v>247488</v>
+        <v>231122</v>
       </c>
       <c r="AS57" s="11">
-        <v>231122</v>
+        <v>249075</v>
       </c>
       <c r="AT57" s="11">
-        <v>249075</v>
+        <v>184744</v>
       </c>
       <c r="AU57" s="11">
-        <v>184744</v>
+        <v>129067</v>
       </c>
       <c r="AV57" s="11">
-        <v>129067</v>
+        <v>143575</v>
       </c>
       <c r="AW57" s="11">
-        <v>143575</v>
+        <v>280420</v>
       </c>
       <c r="AX57" s="11">
-        <v>280420</v>
+        <v>262114</v>
       </c>
       <c r="AY57" s="11">
-        <v>262114</v>
+        <v>241008</v>
       </c>
       <c r="AZ57" s="11">
-        <v>241008</v>
+        <v>198431</v>
       </c>
       <c r="BA57" s="11">
-        <v>198431</v>
+        <v>146356</v>
       </c>
       <c r="BB57" s="11">
-        <v>146356</v>
+        <v>158671</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>61</v>
       </c>
@@ -7394,104 +7394,104 @@
       <c r="V58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W58" s="13" t="s">
-        <v>57</v>
+      <c r="W58" s="13">
+        <v>82971</v>
       </c>
       <c r="X58" s="13">
-        <v>82971</v>
+        <v>102665</v>
       </c>
       <c r="Y58" s="13">
-        <v>102665</v>
+        <v>121223</v>
       </c>
       <c r="Z58" s="13">
-        <v>121223</v>
+        <v>84959</v>
       </c>
       <c r="AA58" s="13">
-        <v>84959</v>
+        <v>79579</v>
       </c>
       <c r="AB58" s="13">
-        <v>79579</v>
+        <v>99804</v>
       </c>
       <c r="AC58" s="13">
-        <v>99804</v>
+        <v>84884</v>
       </c>
       <c r="AD58" s="13">
-        <v>84884</v>
+        <v>55835</v>
       </c>
       <c r="AE58" s="13">
-        <v>55835</v>
+        <v>98828</v>
       </c>
       <c r="AF58" s="13">
-        <v>98828</v>
+        <v>165657</v>
       </c>
       <c r="AG58" s="13">
-        <v>165657</v>
+        <v>179585</v>
       </c>
       <c r="AH58" s="13">
-        <v>179585</v>
+        <v>115945</v>
       </c>
       <c r="AI58" s="13">
-        <v>115945</v>
+        <v>115065</v>
       </c>
       <c r="AJ58" s="13">
-        <v>115065</v>
+        <v>61421</v>
       </c>
       <c r="AK58" s="13">
-        <v>61421</v>
+        <v>135126</v>
       </c>
       <c r="AL58" s="13">
-        <v>135126</v>
+        <v>71677</v>
       </c>
       <c r="AM58" s="13">
-        <v>71677</v>
+        <v>65301</v>
       </c>
       <c r="AN58" s="13">
-        <v>65301</v>
+        <v>98477</v>
       </c>
       <c r="AO58" s="13">
-        <v>98477</v>
+        <v>74436</v>
       </c>
       <c r="AP58" s="13">
-        <v>74436</v>
+        <v>73649</v>
       </c>
       <c r="AQ58" s="13">
-        <v>73649</v>
+        <v>96443</v>
       </c>
       <c r="AR58" s="13">
-        <v>96443</v>
+        <v>136975</v>
       </c>
       <c r="AS58" s="13">
-        <v>136975</v>
+        <v>132620</v>
       </c>
       <c r="AT58" s="13">
-        <v>132620</v>
+        <v>128120</v>
       </c>
       <c r="AU58" s="13">
-        <v>128120</v>
+        <v>62055</v>
       </c>
       <c r="AV58" s="13">
-        <v>62055</v>
+        <v>68661</v>
       </c>
       <c r="AW58" s="13">
-        <v>68661</v>
+        <v>96641</v>
       </c>
       <c r="AX58" s="13">
-        <v>96641</v>
+        <v>136364</v>
       </c>
       <c r="AY58" s="13">
-        <v>136364</v>
+        <v>113045</v>
       </c>
       <c r="AZ58" s="13">
-        <v>113045</v>
+        <v>162370</v>
       </c>
       <c r="BA58" s="13">
-        <v>162370</v>
+        <v>71304</v>
       </c>
       <c r="BB58" s="13">
-        <v>71304</v>
+        <v>111970</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>62</v>
       </c>
@@ -7604,53 +7604,53 @@
       <c r="AM59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN59" s="11" t="s">
-        <v>57</v>
+      <c r="AN59" s="11">
+        <v>10914</v>
       </c>
       <c r="AO59" s="11">
-        <v>10914</v>
+        <v>18152</v>
       </c>
       <c r="AP59" s="11">
-        <v>18152</v>
+        <v>21550</v>
       </c>
       <c r="AQ59" s="11">
-        <v>21550</v>
+        <v>17904</v>
       </c>
       <c r="AR59" s="11">
-        <v>17904</v>
+        <v>17299</v>
       </c>
       <c r="AS59" s="11">
-        <v>17299</v>
+        <v>19557</v>
       </c>
       <c r="AT59" s="11">
-        <v>19557</v>
+        <v>22545</v>
       </c>
       <c r="AU59" s="11">
-        <v>22545</v>
+        <v>9790</v>
       </c>
       <c r="AV59" s="11">
-        <v>9790</v>
+        <v>22505</v>
       </c>
       <c r="AW59" s="11">
-        <v>22505</v>
+        <v>22342</v>
       </c>
       <c r="AX59" s="11">
-        <v>22342</v>
+        <v>20610</v>
       </c>
       <c r="AY59" s="11">
-        <v>20610</v>
+        <v>2210</v>
       </c>
       <c r="AZ59" s="11">
-        <v>2210</v>
+        <v>11289</v>
       </c>
       <c r="BA59" s="11">
-        <v>11289</v>
+        <v>31819</v>
       </c>
       <c r="BB59" s="11">
-        <v>31819</v>
+        <v>11437</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>72</v>
       </c>
@@ -7711,103 +7711,103 @@
         <v>0</v>
       </c>
       <c r="W60" s="15">
-        <v>0</v>
+        <v>178519</v>
       </c>
       <c r="X60" s="15">
-        <v>178519</v>
+        <v>208278</v>
       </c>
       <c r="Y60" s="15">
-        <v>208278</v>
+        <v>217888</v>
       </c>
       <c r="Z60" s="15">
-        <v>217888</v>
+        <v>178438</v>
       </c>
       <c r="AA60" s="15">
-        <v>178438</v>
+        <v>157755</v>
       </c>
       <c r="AB60" s="15">
-        <v>157755</v>
+        <v>195806</v>
       </c>
       <c r="AC60" s="15">
-        <v>195806</v>
+        <v>199871</v>
       </c>
       <c r="AD60" s="15">
-        <v>199871</v>
+        <v>162396</v>
       </c>
       <c r="AE60" s="15">
-        <v>162396</v>
+        <v>187393</v>
       </c>
       <c r="AF60" s="15">
-        <v>187393</v>
+        <v>265973</v>
       </c>
       <c r="AG60" s="15">
-        <v>265973</v>
+        <v>300837</v>
       </c>
       <c r="AH60" s="15">
-        <v>300837</v>
+        <v>280015</v>
       </c>
       <c r="AI60" s="15">
-        <v>280015</v>
+        <v>247146</v>
       </c>
       <c r="AJ60" s="15">
-        <v>247146</v>
+        <v>158470</v>
       </c>
       <c r="AK60" s="15">
-        <v>158470</v>
+        <v>280060</v>
       </c>
       <c r="AL60" s="15">
-        <v>280060</v>
+        <v>158490</v>
       </c>
       <c r="AM60" s="15">
-        <v>158490</v>
+        <v>177426</v>
       </c>
       <c r="AN60" s="15">
-        <v>177426</v>
+        <v>230683</v>
       </c>
       <c r="AO60" s="15">
-        <v>230683</v>
+        <v>298529</v>
       </c>
       <c r="AP60" s="15">
-        <v>298529</v>
+        <v>293588</v>
       </c>
       <c r="AQ60" s="15">
-        <v>293588</v>
+        <v>361844</v>
       </c>
       <c r="AR60" s="15">
-        <v>361844</v>
+        <v>385436</v>
       </c>
       <c r="AS60" s="15">
-        <v>385436</v>
+        <v>401369</v>
       </c>
       <c r="AT60" s="15">
-        <v>401369</v>
+        <v>335413</v>
       </c>
       <c r="AU60" s="15">
-        <v>335413</v>
+        <v>200936</v>
       </c>
       <c r="AV60" s="15">
-        <v>200936</v>
+        <v>234768</v>
       </c>
       <c r="AW60" s="15">
-        <v>234768</v>
+        <v>399471</v>
       </c>
       <c r="AX60" s="15">
-        <v>399471</v>
+        <v>419118</v>
       </c>
       <c r="AY60" s="15">
-        <v>419118</v>
+        <v>356289</v>
       </c>
       <c r="AZ60" s="15">
-        <v>356289</v>
+        <v>372153</v>
       </c>
       <c r="BA60" s="15">
-        <v>372153</v>
+        <v>249492</v>
       </c>
       <c r="BB60" s="15">
-        <v>249492</v>
+        <v>282276</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
         <v>80</v>
       </c>
@@ -7864,7 +7864,7 @@
       <c r="BA61" s="9"/>
       <c r="BB61" s="9"/>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>60</v>
       </c>
@@ -7953,8 +7953,8 @@
       <c r="AE62" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF62" s="11" t="s">
-        <v>57</v>
+      <c r="AF62" s="11">
+        <v>0</v>
       </c>
       <c r="AG62" s="11">
         <v>0</v>
@@ -8023,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>61</v>
       </c>
@@ -8112,8 +8112,8 @@
       <c r="AE63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF63" s="13" t="s">
-        <v>57</v>
+      <c r="AF63" s="13">
+        <v>0</v>
       </c>
       <c r="AG63" s="13">
         <v>0</v>
@@ -8182,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="16" t="s">
         <v>74</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
         <v>81</v>
       </c>
@@ -8396,7 +8396,7 @@
       <c r="BA65" s="9"/>
       <c r="BB65" s="9"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>56</v>
       </c>
@@ -8485,8 +8485,8 @@
       <c r="AE66" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF66" s="11" t="s">
-        <v>57</v>
+      <c r="AF66" s="11">
+        <v>0</v>
       </c>
       <c r="AG66" s="11">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>67</v>
       </c>
@@ -8644,8 +8644,8 @@
       <c r="AE67" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF67" s="13" t="s">
-        <v>57</v>
+      <c r="AF67" s="13">
+        <v>0</v>
       </c>
       <c r="AG67" s="13">
         <v>0</v>
@@ -8714,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="16" t="s">
         <v>68</v>
       </c>
@@ -8776,8 +8776,8 @@
       <c r="V68" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W68" s="17" t="s">
-        <v>57</v>
+      <c r="W68" s="17">
+        <v>0</v>
       </c>
       <c r="X68" s="17">
         <v>0</v>
@@ -8873,7 +8873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="18" t="s">
         <v>82</v>
       </c>
@@ -8930,7 +8930,7 @@
       <c r="BA69" s="19"/>
       <c r="BB69" s="19"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="16" t="s">
         <v>76</v>
       </c>
@@ -8992,8 +8992,8 @@
       <c r="V70" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W70" s="17" t="s">
-        <v>57</v>
+      <c r="W70" s="17">
+        <v>0</v>
       </c>
       <c r="X70" s="17">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
         <v>83</v>
       </c>
@@ -9146,7 +9146,7 @@
       <c r="BA71" s="9"/>
       <c r="BB71" s="9"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>84</v>
       </c>
@@ -9208,8 +9208,8 @@
       <c r="V72" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W72" s="11" t="s">
-        <v>57</v>
+      <c r="W72" s="11">
+        <v>0</v>
       </c>
       <c r="X72" s="11">
         <v>0</v>
@@ -9305,7 +9305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
         <v>69</v>
       </c>
@@ -9366,103 +9366,103 @@
         <v>0</v>
       </c>
       <c r="W73" s="15">
-        <v>0</v>
+        <v>178519</v>
       </c>
       <c r="X73" s="15">
-        <v>178519</v>
+        <v>208278</v>
       </c>
       <c r="Y73" s="15">
-        <v>208278</v>
+        <v>217888</v>
       </c>
       <c r="Z73" s="15">
-        <v>217888</v>
+        <v>178438</v>
       </c>
       <c r="AA73" s="15">
-        <v>178438</v>
+        <v>157755</v>
       </c>
       <c r="AB73" s="15">
-        <v>157755</v>
+        <v>195806</v>
       </c>
       <c r="AC73" s="15">
-        <v>195806</v>
+        <v>199871</v>
       </c>
       <c r="AD73" s="15">
-        <v>199871</v>
+        <v>162396</v>
       </c>
       <c r="AE73" s="15">
-        <v>162396</v>
+        <v>187393</v>
       </c>
       <c r="AF73" s="15">
-        <v>187393</v>
+        <v>265973</v>
       </c>
       <c r="AG73" s="15">
-        <v>265973</v>
+        <v>300837</v>
       </c>
       <c r="AH73" s="15">
-        <v>300837</v>
+        <v>280015</v>
       </c>
       <c r="AI73" s="15">
-        <v>280015</v>
+        <v>247146</v>
       </c>
       <c r="AJ73" s="15">
-        <v>247146</v>
+        <v>158470</v>
       </c>
       <c r="AK73" s="15">
-        <v>158470</v>
+        <v>280060</v>
       </c>
       <c r="AL73" s="15">
-        <v>280060</v>
+        <v>158490</v>
       </c>
       <c r="AM73" s="15">
-        <v>158490</v>
+        <v>177426</v>
       </c>
       <c r="AN73" s="15">
-        <v>177426</v>
+        <v>230683</v>
       </c>
       <c r="AO73" s="15">
-        <v>230683</v>
+        <v>298529</v>
       </c>
       <c r="AP73" s="15">
-        <v>298529</v>
+        <v>293588</v>
       </c>
       <c r="AQ73" s="15">
-        <v>293588</v>
+        <v>361844</v>
       </c>
       <c r="AR73" s="15">
-        <v>361844</v>
+        <v>385436</v>
       </c>
       <c r="AS73" s="15">
-        <v>385436</v>
+        <v>401369</v>
       </c>
       <c r="AT73" s="15">
-        <v>401369</v>
+        <v>335413</v>
       </c>
       <c r="AU73" s="15">
-        <v>335413</v>
+        <v>200936</v>
       </c>
       <c r="AV73" s="15">
-        <v>200936</v>
+        <v>234768</v>
       </c>
       <c r="AW73" s="15">
-        <v>234768</v>
+        <v>399471</v>
       </c>
       <c r="AX73" s="15">
-        <v>399471</v>
+        <v>419118</v>
       </c>
       <c r="AY73" s="15">
-        <v>419118</v>
+        <v>356289</v>
       </c>
       <c r="AZ73" s="15">
-        <v>356289</v>
+        <v>372153</v>
       </c>
       <c r="BA73" s="15">
-        <v>372153</v>
+        <v>249492</v>
       </c>
       <c r="BB73" s="15">
-        <v>249492</v>
+        <v>282276</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -9517,7 +9517,7 @@
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9572,7 +9572,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -9627,7 +9627,7 @@
       <c r="BA76" s="1"/>
       <c r="BB76" s="1"/>
     </row>
-    <row r="77" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
         <v>85</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -9839,7 +9839,7 @@
       <c r="BA78" s="1"/>
       <c r="BB78" s="1"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
         <v>86</v>
       </c>
@@ -9896,7 +9896,7 @@
       <c r="BA79" s="9"/>
       <c r="BB79" s="9"/>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>56</v>
       </c>
@@ -9997,15 +9997,15 @@
       <c r="AI80" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ80" s="11" t="s">
-        <v>57</v>
+      <c r="AJ80" s="11">
+        <v>16978836</v>
       </c>
       <c r="AK80" s="11">
-        <v>16978836</v>
-      </c>
-      <c r="AL80" s="11">
         <v>12709091</v>
       </c>
+      <c r="AL80" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AM80" s="11" t="s">
         <v>57</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
         <v>60</v>
       </c>
@@ -10117,104 +10117,104 @@
       <c r="V81" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W81" s="13" t="s">
-        <v>57</v>
+      <c r="W81" s="13">
+        <v>41797025</v>
       </c>
       <c r="X81" s="13">
-        <v>41797025</v>
+        <v>47519097</v>
       </c>
       <c r="Y81" s="13">
-        <v>47519097</v>
+        <v>46939291</v>
       </c>
       <c r="Z81" s="13">
-        <v>46939291</v>
+        <v>49028856</v>
       </c>
       <c r="AA81" s="13">
-        <v>49028856</v>
+        <v>46916466</v>
       </c>
       <c r="AB81" s="13">
-        <v>46916466</v>
+        <v>53702206</v>
       </c>
       <c r="AC81" s="13">
-        <v>53702206</v>
+        <v>55500000</v>
       </c>
       <c r="AD81" s="13">
-        <v>55500000</v>
+        <v>53385965</v>
       </c>
       <c r="AE81" s="13">
-        <v>53385965</v>
+        <v>51029412</v>
       </c>
       <c r="AF81" s="13">
-        <v>51029412</v>
+        <v>65608895</v>
       </c>
       <c r="AG81" s="13">
-        <v>65608895</v>
+        <v>80512616</v>
       </c>
       <c r="AH81" s="13">
-        <v>80512616</v>
+        <v>78654825</v>
       </c>
       <c r="AI81" s="13">
-        <v>78654825</v>
+        <v>84450767</v>
       </c>
       <c r="AJ81" s="13">
-        <v>84450767</v>
+        <v>80549356</v>
       </c>
       <c r="AK81" s="13">
-        <v>80549356</v>
+        <v>85599407</v>
       </c>
       <c r="AL81" s="13">
-        <v>85599407</v>
+        <v>94463687</v>
       </c>
       <c r="AM81" s="13">
-        <v>94463687</v>
+        <v>77121817</v>
       </c>
       <c r="AN81" s="13">
-        <v>77121817</v>
+        <v>100905912</v>
       </c>
       <c r="AO81" s="13">
-        <v>100905912</v>
+        <v>141870434</v>
       </c>
       <c r="AP81" s="13">
-        <v>141870434</v>
+        <v>132612299</v>
       </c>
       <c r="AQ81" s="13">
-        <v>132612299</v>
+        <v>110387154</v>
       </c>
       <c r="AR81" s="13">
-        <v>110387154</v>
+        <v>147965429</v>
       </c>
       <c r="AS81" s="13">
-        <v>147965429</v>
+        <v>157642405</v>
       </c>
       <c r="AT81" s="13">
-        <v>157642405</v>
+        <v>144444097</v>
       </c>
       <c r="AU81" s="13">
-        <v>144444097</v>
+        <v>141831868</v>
       </c>
       <c r="AV81" s="13">
-        <v>141831868</v>
+        <v>144151606</v>
       </c>
       <c r="AW81" s="13">
-        <v>144151606</v>
+        <v>150278671</v>
       </c>
       <c r="AX81" s="13">
-        <v>150278671</v>
+        <v>152214866</v>
       </c>
       <c r="AY81" s="13">
-        <v>152214866</v>
+        <v>149138614</v>
       </c>
       <c r="AZ81" s="13">
-        <v>149138614</v>
+        <v>145584006</v>
       </c>
       <c r="BA81" s="13">
-        <v>145584006</v>
+        <v>157541442</v>
       </c>
       <c r="BB81" s="13">
-        <v>157541442</v>
+        <v>154199223</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>61</v>
       </c>
@@ -10276,104 +10276,104 @@
       <c r="V82" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W82" s="11" t="s">
-        <v>57</v>
+      <c r="W82" s="11">
+        <v>28492788</v>
       </c>
       <c r="X82" s="11">
-        <v>28492788</v>
+        <v>31618417</v>
       </c>
       <c r="Y82" s="11">
-        <v>31618417</v>
+        <v>41246342</v>
       </c>
       <c r="Z82" s="11">
-        <v>41246342</v>
+        <v>32601305</v>
       </c>
       <c r="AA82" s="11">
-        <v>32601305</v>
+        <v>33408480</v>
       </c>
       <c r="AB82" s="11">
-        <v>33408480</v>
+        <v>36679162</v>
       </c>
       <c r="AC82" s="11">
-        <v>36679162</v>
+        <v>34477660</v>
       </c>
       <c r="AD82" s="11">
-        <v>34477660</v>
+        <v>35204918</v>
       </c>
       <c r="AE82" s="11">
-        <v>35204918</v>
+        <v>36213998</v>
       </c>
       <c r="AF82" s="11">
-        <v>36213998</v>
+        <v>53061179</v>
       </c>
       <c r="AG82" s="11">
-        <v>53061179</v>
+        <v>50261685</v>
       </c>
       <c r="AH82" s="11">
-        <v>50261685</v>
+        <v>47479525</v>
       </c>
       <c r="AI82" s="11">
-        <v>47479525</v>
+        <v>53468866</v>
       </c>
       <c r="AJ82" s="11">
-        <v>53468866</v>
+        <v>49854708</v>
       </c>
       <c r="AK82" s="11">
-        <v>49854708</v>
+        <v>45635258</v>
       </c>
       <c r="AL82" s="11">
-        <v>45635258</v>
+        <v>39842690</v>
       </c>
       <c r="AM82" s="11">
-        <v>39842690</v>
+        <v>44788066</v>
       </c>
       <c r="AN82" s="11">
-        <v>44788066</v>
+        <v>75058689</v>
       </c>
       <c r="AO82" s="11">
-        <v>75058689</v>
+        <v>72408560</v>
       </c>
       <c r="AP82" s="11">
-        <v>72408560</v>
+        <v>74770558</v>
       </c>
       <c r="AQ82" s="11">
-        <v>74770558</v>
+        <v>68302408</v>
       </c>
       <c r="AR82" s="11">
-        <v>68302408</v>
+        <v>99185373</v>
       </c>
       <c r="AS82" s="11">
-        <v>99185373</v>
+        <v>99564565</v>
       </c>
       <c r="AT82" s="11">
-        <v>99564565</v>
+        <v>99164087</v>
       </c>
       <c r="AU82" s="11">
-        <v>99164087</v>
+        <v>105895904</v>
       </c>
       <c r="AV82" s="11">
-        <v>105895904</v>
+        <v>96029371</v>
       </c>
       <c r="AW82" s="11">
-        <v>96029371</v>
+        <v>95119094</v>
       </c>
       <c r="AX82" s="11">
-        <v>95119094</v>
+        <v>96987198</v>
       </c>
       <c r="AY82" s="11">
-        <v>96987198</v>
+        <v>96868038</v>
       </c>
       <c r="AZ82" s="11">
-        <v>96868038</v>
+        <v>95737028</v>
       </c>
       <c r="BA82" s="11">
-        <v>95737028</v>
+        <v>104093431</v>
       </c>
       <c r="BB82" s="11">
-        <v>104093431</v>
+        <v>99000884</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>62</v>
       </c>
@@ -10486,53 +10486,53 @@
       <c r="AM83" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN83" s="13" t="s">
-        <v>57</v>
+      <c r="AN83" s="13">
+        <v>11002016</v>
       </c>
       <c r="AO83" s="13">
-        <v>11002016</v>
+        <v>11001212</v>
       </c>
       <c r="AP83" s="13">
-        <v>11001212</v>
+        <v>11000510</v>
       </c>
       <c r="AQ83" s="13">
-        <v>11000510</v>
+        <v>10997543</v>
       </c>
       <c r="AR83" s="13">
-        <v>10997543</v>
+        <v>14900086</v>
       </c>
       <c r="AS83" s="13">
-        <v>14900086</v>
+        <v>14906250</v>
       </c>
       <c r="AT83" s="13">
-        <v>14906250</v>
+        <v>14900859</v>
       </c>
       <c r="AU83" s="13">
-        <v>14900859</v>
+        <v>14901065</v>
       </c>
       <c r="AV83" s="13">
-        <v>14901065</v>
+        <v>14903974</v>
       </c>
       <c r="AW83" s="13">
-        <v>14903974</v>
+        <v>14904603</v>
       </c>
       <c r="AX83" s="13">
-        <v>14904603</v>
+        <v>14902386</v>
       </c>
       <c r="AY83" s="13">
-        <v>14902386</v>
+        <v>50227273</v>
       </c>
       <c r="AZ83" s="13">
-        <v>50227273</v>
+        <v>19497409</v>
       </c>
       <c r="BA83" s="13">
-        <v>19497409</v>
+        <v>19496936</v>
       </c>
       <c r="BB83" s="13">
-        <v>19496936</v>
+        <v>19517065</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>89</v>
       </c>
@@ -10589,7 +10589,7 @@
       <c r="BA84" s="9"/>
       <c r="BB84" s="9"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>56</v>
       </c>
@@ -10678,8 +10678,8 @@
       <c r="AE85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF85" s="11" t="s">
-        <v>57</v>
+      <c r="AF85" s="11">
+        <v>0</v>
       </c>
       <c r="AG85" s="11">
         <v>0</v>
@@ -10748,7 +10748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>67</v>
       </c>
@@ -10837,8 +10837,8 @@
       <c r="AE86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF86" s="13" t="s">
-        <v>57</v>
+      <c r="AF86" s="13">
+        <v>0</v>
       </c>
       <c r="AG86" s="13">
         <v>0</v>

--- a/database/industries/kashi/kazar/product/monthly_seprated.xlsx
+++ b/database/industries/kashi/kazar/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="90">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3345,11 +3345,11 @@
       <c r="AC11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AD11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE11" s="12" t="n">
-        <v>0</v>
+      <c r="AD11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="AF11" s="12" t="s">
         <v>57</v>
@@ -3363,17 +3363,17 @@
       <c r="AI11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AJ11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK11" s="12" t="n">
-        <v>0</v>
+      <c r="AJ11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="AL11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AM11" s="12" t="s">
-        <v>57</v>
+      <c r="AM11" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="AN11" s="12" t="n">
         <v>0</v>
@@ -3477,8 +3477,8 @@
       <c r="T12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U12" s="15" t="s">
-        <v>57</v>
+      <c r="U12" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="V12" s="15" t="n">
         <v>0</v>
@@ -3504,8 +3504,8 @@
       <c r="AC12" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AD12" s="15" t="n">
-        <v>0</v>
+      <c r="AD12" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="AE12" s="15" t="s">
         <v>57</v>
@@ -3636,107 +3636,107 @@
       <c r="T13" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="U13" s="12" t="s">
-        <v>57</v>
+      <c r="U13" s="12" t="n">
+        <v>1877</v>
       </c>
       <c r="V13" s="12" t="n">
-        <v>1877</v>
+        <v>1998</v>
       </c>
       <c r="W13" s="12" t="n">
-        <v>1998</v>
+        <v>2081</v>
       </c>
       <c r="X13" s="12" t="n">
-        <v>2081</v>
+        <v>1820</v>
       </c>
       <c r="Y13" s="12" t="n">
-        <v>1820</v>
+        <v>1553</v>
       </c>
       <c r="Z13" s="12" t="n">
-        <v>1553</v>
+        <v>1724</v>
       </c>
       <c r="AA13" s="12" t="n">
-        <v>1724</v>
+        <v>1914</v>
       </c>
       <c r="AB13" s="12" t="n">
-        <v>1914</v>
+        <v>2186</v>
       </c>
       <c r="AC13" s="12" t="n">
-        <v>2186</v>
+        <v>1610</v>
       </c>
       <c r="AD13" s="12" t="n">
-        <v>1610</v>
+        <v>1599</v>
       </c>
       <c r="AE13" s="12" t="n">
-        <v>1599</v>
+        <v>1778</v>
       </c>
       <c r="AF13" s="12" t="n">
-        <v>1778</v>
+        <v>1605</v>
       </c>
       <c r="AG13" s="12" t="n">
-        <v>1605</v>
+        <v>1722</v>
       </c>
       <c r="AH13" s="12" t="n">
-        <v>1722</v>
+        <v>1323</v>
       </c>
       <c r="AI13" s="12" t="n">
-        <v>1323</v>
+        <v>1967</v>
       </c>
       <c r="AJ13" s="12" t="n">
-        <v>1967</v>
+        <v>732</v>
       </c>
       <c r="AK13" s="12" t="n">
-        <v>732</v>
+        <v>1307</v>
       </c>
       <c r="AL13" s="12" t="n">
-        <v>1307</v>
+        <v>1122</v>
       </c>
       <c r="AM13" s="12" t="n">
-        <v>1122</v>
+        <v>1817</v>
       </c>
       <c r="AN13" s="12" t="n">
+        <v>1720</v>
+      </c>
+      <c r="AO13" s="12" t="n">
+        <v>1413</v>
+      </c>
+      <c r="AP13" s="12" t="n">
+        <v>1917</v>
+      </c>
+      <c r="AQ13" s="12" t="n">
+        <v>1559</v>
+      </c>
+      <c r="AR13" s="12" t="n">
+        <v>1545</v>
+      </c>
+      <c r="AS13" s="12" t="n">
+        <v>592</v>
+      </c>
+      <c r="AT13" s="12" t="n">
+        <v>987</v>
+      </c>
+      <c r="AU13" s="12" t="n">
         <v>1817</v>
       </c>
-      <c r="AO13" s="12" t="n">
-        <v>1720</v>
-      </c>
-      <c r="AP13" s="12" t="n">
-        <v>1413</v>
-      </c>
-      <c r="AQ13" s="12" t="n">
-        <v>1917</v>
-      </c>
-      <c r="AR13" s="12" t="n">
-        <v>1559</v>
-      </c>
-      <c r="AS13" s="12" t="n">
-        <v>1545</v>
-      </c>
-      <c r="AT13" s="12" t="n">
-        <v>592</v>
-      </c>
-      <c r="AU13" s="12" t="n">
-        <v>987</v>
-      </c>
       <c r="AV13" s="12" t="n">
-        <v>1817</v>
+        <v>1735</v>
       </c>
       <c r="AW13" s="12" t="n">
-        <v>1735</v>
+        <v>1745</v>
       </c>
       <c r="AX13" s="12" t="n">
-        <v>1745</v>
+        <v>1709</v>
       </c>
       <c r="AY13" s="12" t="n">
-        <v>1709</v>
+        <v>1219</v>
       </c>
       <c r="AZ13" s="12" t="n">
-        <v>1219</v>
+        <v>955</v>
       </c>
       <c r="BA13" s="12" t="n">
-        <v>955</v>
+        <v>1770</v>
       </c>
       <c r="BB13" s="12" t="n">
-        <v>1770</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3795,107 +3795,107 @@
       <c r="T14" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U14" s="15" t="s">
-        <v>57</v>
+      <c r="U14" s="15" t="n">
+        <v>3132</v>
       </c>
       <c r="V14" s="15" t="n">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="W14" s="15" t="n">
-        <v>3133</v>
+        <v>3214</v>
       </c>
       <c r="X14" s="15" t="n">
-        <v>3214</v>
+        <v>2640</v>
       </c>
       <c r="Y14" s="15" t="n">
-        <v>2640</v>
+        <v>2361</v>
       </c>
       <c r="Z14" s="15" t="n">
-        <v>2361</v>
+        <v>3294</v>
       </c>
       <c r="AA14" s="15" t="n">
-        <v>3294</v>
+        <v>1913</v>
       </c>
       <c r="AB14" s="15" t="n">
-        <v>1913</v>
+        <v>1843</v>
       </c>
       <c r="AC14" s="15" t="n">
-        <v>1843</v>
+        <v>2896</v>
       </c>
       <c r="AD14" s="15" t="n">
-        <v>2896</v>
+        <v>3006</v>
       </c>
       <c r="AE14" s="15" t="n">
-        <v>3006</v>
+        <v>3390</v>
       </c>
       <c r="AF14" s="15" t="n">
-        <v>3390</v>
+        <v>2806</v>
       </c>
       <c r="AG14" s="15" t="n">
-        <v>2806</v>
+        <v>1832</v>
       </c>
       <c r="AH14" s="15" t="n">
-        <v>1832</v>
+        <v>1464</v>
       </c>
       <c r="AI14" s="15" t="n">
-        <v>1464</v>
+        <v>2174</v>
       </c>
       <c r="AJ14" s="15" t="n">
-        <v>2174</v>
+        <v>1752</v>
       </c>
       <c r="AK14" s="15" t="n">
-        <v>1752</v>
+        <v>1457</v>
       </c>
       <c r="AL14" s="15" t="n">
-        <v>1457</v>
+        <v>1250</v>
       </c>
       <c r="AM14" s="15" t="n">
-        <v>1250</v>
+        <v>992</v>
       </c>
       <c r="AN14" s="15" t="n">
-        <v>992</v>
+        <v>1360</v>
       </c>
       <c r="AO14" s="15" t="n">
-        <v>1360</v>
+        <v>1066</v>
       </c>
       <c r="AP14" s="15" t="n">
-        <v>1066</v>
+        <v>1731</v>
       </c>
       <c r="AQ14" s="15" t="n">
-        <v>1731</v>
+        <v>1452</v>
       </c>
       <c r="AR14" s="15" t="n">
+        <v>941</v>
+      </c>
+      <c r="AS14" s="15" t="n">
+        <v>736</v>
+      </c>
+      <c r="AT14" s="15" t="n">
+        <v>837</v>
+      </c>
+      <c r="AU14" s="15" t="n">
+        <v>779</v>
+      </c>
+      <c r="AV14" s="15" t="n">
+        <v>1094</v>
+      </c>
+      <c r="AW14" s="15" t="n">
+        <v>1727</v>
+      </c>
+      <c r="AX14" s="15" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AY14" s="15" t="n">
+        <v>911</v>
+      </c>
+      <c r="AZ14" s="15" t="n">
+        <v>745</v>
+      </c>
+      <c r="BA14" s="15" t="n">
+        <v>1833</v>
+      </c>
+      <c r="BB14" s="15" t="n">
         <v>1452</v>
-      </c>
-      <c r="AS14" s="15" t="n">
-        <v>941</v>
-      </c>
-      <c r="AT14" s="15" t="n">
-        <v>736</v>
-      </c>
-      <c r="AU14" s="15" t="n">
-        <v>837</v>
-      </c>
-      <c r="AV14" s="15" t="n">
-        <v>779</v>
-      </c>
-      <c r="AW14" s="15" t="n">
-        <v>1094</v>
-      </c>
-      <c r="AX14" s="15" t="n">
-        <v>1727</v>
-      </c>
-      <c r="AY14" s="15" t="n">
-        <v>2018</v>
-      </c>
-      <c r="AZ14" s="15" t="n">
-        <v>911</v>
-      </c>
-      <c r="BA14" s="15" t="n">
-        <v>745</v>
-      </c>
-      <c r="BB14" s="15" t="n">
-        <v>1833</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4005,56 +4005,56 @@
       <c r="AK15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AL15" s="12" t="s">
-        <v>57</v>
+      <c r="AL15" s="12" t="n">
+        <v>1032</v>
       </c>
       <c r="AM15" s="12" t="n">
-        <v>1032</v>
+        <v>1836</v>
       </c>
       <c r="AN15" s="12" t="n">
-        <v>1836</v>
+        <v>1864</v>
       </c>
       <c r="AO15" s="12" t="n">
-        <v>1864</v>
+        <v>1769</v>
       </c>
       <c r="AP15" s="12" t="n">
-        <v>1769</v>
+        <v>1160</v>
       </c>
       <c r="AQ15" s="12" t="n">
-        <v>1160</v>
+        <v>1415</v>
       </c>
       <c r="AR15" s="12" t="n">
-        <v>1415</v>
+        <v>1490</v>
       </c>
       <c r="AS15" s="12" t="n">
-        <v>1490</v>
+        <v>364</v>
       </c>
       <c r="AT15" s="12" t="n">
-        <v>364</v>
+        <v>1796</v>
       </c>
       <c r="AU15" s="12" t="n">
-        <v>1796</v>
+        <v>1634</v>
       </c>
       <c r="AV15" s="12" t="n">
-        <v>1634</v>
+        <v>1310</v>
       </c>
       <c r="AW15" s="12" t="n">
-        <v>1310</v>
+        <v>422</v>
       </c>
       <c r="AX15" s="12" t="n">
-        <v>422</v>
+        <v>156</v>
       </c>
       <c r="AY15" s="12" t="n">
-        <v>156</v>
+        <v>1948</v>
       </c>
       <c r="AZ15" s="12" t="n">
-        <v>1948</v>
+        <v>504</v>
       </c>
       <c r="BA15" s="12" t="n">
-        <v>504</v>
+        <v>1401</v>
       </c>
       <c r="BB15" s="12" t="n">
-        <v>1401</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4112,106 +4112,106 @@
         <v>0</v>
       </c>
       <c r="U16" s="18" t="n">
-        <v>0</v>
+        <v>5009</v>
       </c>
       <c r="V16" s="18" t="n">
-        <v>5009</v>
+        <v>5131</v>
       </c>
       <c r="W16" s="18" t="n">
-        <v>5131</v>
+        <v>5295</v>
       </c>
       <c r="X16" s="18" t="n">
-        <v>5295</v>
+        <v>4460</v>
       </c>
       <c r="Y16" s="18" t="n">
-        <v>4460</v>
+        <v>3914</v>
       </c>
       <c r="Z16" s="18" t="n">
-        <v>3914</v>
+        <v>5018</v>
       </c>
       <c r="AA16" s="18" t="n">
-        <v>5018</v>
+        <v>3827</v>
       </c>
       <c r="AB16" s="18" t="n">
-        <v>3827</v>
+        <v>4029</v>
       </c>
       <c r="AC16" s="18" t="n">
-        <v>4029</v>
+        <v>4506</v>
       </c>
       <c r="AD16" s="18" t="n">
-        <v>4506</v>
+        <v>4605</v>
       </c>
       <c r="AE16" s="18" t="n">
-        <v>4605</v>
+        <v>5168</v>
       </c>
       <c r="AF16" s="18" t="n">
-        <v>5168</v>
+        <v>4411</v>
       </c>
       <c r="AG16" s="18" t="n">
-        <v>4411</v>
+        <v>3554</v>
       </c>
       <c r="AH16" s="18" t="n">
-        <v>3554</v>
+        <v>2787</v>
       </c>
       <c r="AI16" s="18" t="n">
-        <v>2787</v>
+        <v>4141</v>
       </c>
       <c r="AJ16" s="18" t="n">
-        <v>4141</v>
+        <v>2484</v>
       </c>
       <c r="AK16" s="18" t="n">
-        <v>2484</v>
+        <v>2764</v>
       </c>
       <c r="AL16" s="18" t="n">
-        <v>2764</v>
+        <v>3404</v>
       </c>
       <c r="AM16" s="18" t="n">
-        <v>3404</v>
+        <v>4645</v>
       </c>
       <c r="AN16" s="18" t="n">
-        <v>4645</v>
+        <v>4944</v>
       </c>
       <c r="AO16" s="18" t="n">
-        <v>4944</v>
+        <v>4248</v>
       </c>
       <c r="AP16" s="18" t="n">
-        <v>4248</v>
+        <v>4808</v>
       </c>
       <c r="AQ16" s="18" t="n">
-        <v>4808</v>
+        <v>4426</v>
       </c>
       <c r="AR16" s="18" t="n">
-        <v>4426</v>
+        <v>3976</v>
       </c>
       <c r="AS16" s="18" t="n">
-        <v>3976</v>
+        <v>1692</v>
       </c>
       <c r="AT16" s="18" t="n">
-        <v>1692</v>
+        <v>3620</v>
       </c>
       <c r="AU16" s="18" t="n">
-        <v>3620</v>
+        <v>4230</v>
       </c>
       <c r="AV16" s="18" t="n">
-        <v>4230</v>
+        <v>4139</v>
       </c>
       <c r="AW16" s="18" t="n">
-        <v>4139</v>
+        <v>3894</v>
       </c>
       <c r="AX16" s="18" t="n">
-        <v>3894</v>
+        <v>3883</v>
       </c>
       <c r="AY16" s="18" t="n">
-        <v>3883</v>
+        <v>4078</v>
       </c>
       <c r="AZ16" s="18" t="n">
-        <v>4078</v>
+        <v>2204</v>
       </c>
       <c r="BA16" s="18" t="n">
-        <v>2204</v>
+        <v>5004</v>
       </c>
       <c r="BB16" s="18" t="n">
-        <v>5004</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4354,11 +4354,11 @@
       <c r="AC18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AD18" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE18" s="12" t="n">
-        <v>0</v>
+      <c r="AD18" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="AF18" s="12" t="s">
         <v>57</v>
@@ -4384,14 +4384,14 @@
       <c r="AM18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AN18" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO18" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="12" t="s">
-        <v>57</v>
+      <c r="AN18" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP18" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="AQ18" s="12" t="n">
         <v>0</v>
@@ -4513,11 +4513,11 @@
       <c r="AC19" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD19" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE19" s="15" t="n">
-        <v>0</v>
+      <c r="AD19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="AF19" s="15" t="s">
         <v>57</v>
@@ -4543,14 +4543,14 @@
       <c r="AM19" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AN19" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO19" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="15" t="s">
-        <v>57</v>
+      <c r="AN19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP19" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AQ19" s="15" t="n">
         <v>0</v>
@@ -4884,11 +4884,11 @@
       <c r="AC22" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AD22" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE22" s="12" t="n">
-        <v>0</v>
+      <c r="AD22" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="AF22" s="12" t="s">
         <v>57</v>
@@ -4914,11 +4914,11 @@
       <c r="AM22" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AN22" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO22" s="12" t="n">
-        <v>0</v>
+      <c r="AN22" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="AP22" s="12" t="s">
         <v>57</v>
@@ -5041,11 +5041,11 @@
       <c r="AC23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD23" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE23" s="15" t="n">
-        <v>0</v>
+      <c r="AD23" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="AF23" s="15" t="s">
         <v>57</v>
@@ -5071,11 +5071,11 @@
       <c r="AM23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AN23" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO23" s="15" t="n">
-        <v>0</v>
+      <c r="AN23" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="AP23" s="15" t="s">
         <v>57</v>
@@ -5171,8 +5171,8 @@
       <c r="T24" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U24" s="20" t="s">
-        <v>57</v>
+      <c r="U24" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V24" s="20" t="n">
         <v>0</v>
@@ -5329,106 +5329,106 @@
         <v>0</v>
       </c>
       <c r="U25" s="18" t="n">
-        <v>0</v>
+        <v>5009</v>
       </c>
       <c r="V25" s="18" t="n">
-        <v>5009</v>
+        <v>5131</v>
       </c>
       <c r="W25" s="18" t="n">
-        <v>5131</v>
+        <v>5295</v>
       </c>
       <c r="X25" s="18" t="n">
-        <v>5295</v>
+        <v>4460</v>
       </c>
       <c r="Y25" s="18" t="n">
-        <v>4460</v>
+        <v>3914</v>
       </c>
       <c r="Z25" s="18" t="n">
-        <v>3914</v>
+        <v>5018</v>
       </c>
       <c r="AA25" s="18" t="n">
-        <v>5018</v>
+        <v>3827</v>
       </c>
       <c r="AB25" s="18" t="n">
-        <v>3827</v>
+        <v>4029</v>
       </c>
       <c r="AC25" s="18" t="n">
-        <v>4029</v>
+        <v>4506</v>
       </c>
       <c r="AD25" s="18" t="n">
-        <v>4506</v>
+        <v>4605</v>
       </c>
       <c r="AE25" s="18" t="n">
-        <v>4605</v>
+        <v>5168</v>
       </c>
       <c r="AF25" s="18" t="n">
-        <v>5168</v>
+        <v>4411</v>
       </c>
       <c r="AG25" s="18" t="n">
-        <v>4411</v>
+        <v>3554</v>
       </c>
       <c r="AH25" s="18" t="n">
-        <v>3554</v>
+        <v>2787</v>
       </c>
       <c r="AI25" s="18" t="n">
-        <v>2787</v>
+        <v>4141</v>
       </c>
       <c r="AJ25" s="18" t="n">
-        <v>4141</v>
+        <v>2484</v>
       </c>
       <c r="AK25" s="18" t="n">
-        <v>2484</v>
+        <v>2764</v>
       </c>
       <c r="AL25" s="18" t="n">
-        <v>2764</v>
+        <v>3404</v>
       </c>
       <c r="AM25" s="18" t="n">
-        <v>3404</v>
+        <v>4645</v>
       </c>
       <c r="AN25" s="18" t="n">
-        <v>4645</v>
+        <v>4944</v>
       </c>
       <c r="AO25" s="18" t="n">
-        <v>4944</v>
+        <v>4248</v>
       </c>
       <c r="AP25" s="18" t="n">
-        <v>4248</v>
+        <v>4808</v>
       </c>
       <c r="AQ25" s="18" t="n">
-        <v>4808</v>
+        <v>4426</v>
       </c>
       <c r="AR25" s="18" t="n">
-        <v>4426</v>
+        <v>3976</v>
       </c>
       <c r="AS25" s="18" t="n">
-        <v>3976</v>
+        <v>1692</v>
       </c>
       <c r="AT25" s="18" t="n">
-        <v>1692</v>
+        <v>3620</v>
       </c>
       <c r="AU25" s="18" t="n">
-        <v>3620</v>
+        <v>4230</v>
       </c>
       <c r="AV25" s="18" t="n">
-        <v>4230</v>
+        <v>4139</v>
       </c>
       <c r="AW25" s="18" t="n">
-        <v>4139</v>
+        <v>3894</v>
       </c>
       <c r="AX25" s="18" t="n">
-        <v>3894</v>
+        <v>3883</v>
       </c>
       <c r="AY25" s="18" t="n">
-        <v>3883</v>
+        <v>4078</v>
       </c>
       <c r="AZ25" s="18" t="n">
-        <v>4078</v>
+        <v>2204</v>
       </c>
       <c r="BA25" s="18" t="n">
-        <v>2204</v>
+        <v>5004</v>
       </c>
       <c r="BB25" s="18" t="n">
-        <v>5004</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5946,11 +5946,11 @@
       <c r="AC32" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AD32" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE32" s="12" t="n">
-        <v>0</v>
+      <c r="AD32" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="AF32" s="12" t="s">
         <v>57</v>
@@ -5958,23 +5958,23 @@
       <c r="AG32" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AH32" s="12" t="s">
-        <v>57</v>
+      <c r="AH32" s="12" t="n">
+        <v>189</v>
       </c>
       <c r="AI32" s="12" t="n">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="AJ32" s="12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK32" s="12" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AK32" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="AL32" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AM32" s="12" t="s">
-        <v>57</v>
+      <c r="AM32" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="AN32" s="12" t="n">
         <v>0</v>
@@ -6078,8 +6078,8 @@
       <c r="T33" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U33" s="15" t="s">
-        <v>57</v>
+      <c r="U33" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="V33" s="15" t="n">
         <v>0</v>
@@ -6105,8 +6105,8 @@
       <c r="AC33" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AD33" s="15" t="n">
-        <v>0</v>
+      <c r="AD33" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="AE33" s="15" t="s">
         <v>57</v>
@@ -6237,107 +6237,107 @@
       <c r="T34" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="U34" s="12" t="s">
-        <v>57</v>
+      <c r="U34" s="12" t="n">
+        <v>2286</v>
       </c>
       <c r="V34" s="12" t="n">
-        <v>2286</v>
+        <v>1728</v>
       </c>
       <c r="W34" s="12" t="n">
-        <v>1728</v>
+        <v>2059</v>
       </c>
       <c r="X34" s="12" t="n">
-        <v>2059</v>
+        <v>1906</v>
       </c>
       <c r="Y34" s="12" t="n">
-        <v>1906</v>
+        <v>1664</v>
       </c>
       <c r="Z34" s="12" t="n">
-        <v>1664</v>
+        <v>1632</v>
       </c>
       <c r="AA34" s="12" t="n">
-        <v>1632</v>
+        <v>2038</v>
       </c>
       <c r="AB34" s="12" t="n">
-        <v>2038</v>
+        <v>1995</v>
       </c>
       <c r="AC34" s="12" t="n">
-        <v>1995</v>
+        <v>1734</v>
       </c>
       <c r="AD34" s="12" t="n">
-        <v>1734</v>
+        <v>1529</v>
       </c>
       <c r="AE34" s="12" t="n">
-        <v>1529</v>
+        <v>1506</v>
       </c>
       <c r="AF34" s="12" t="n">
-        <v>1506</v>
+        <v>2083</v>
       </c>
       <c r="AG34" s="12" t="n">
-        <v>2083</v>
+        <v>1564</v>
       </c>
       <c r="AH34" s="12" t="n">
-        <v>1564</v>
+        <v>1165</v>
       </c>
       <c r="AI34" s="12" t="n">
-        <v>1165</v>
+        <v>1685</v>
       </c>
       <c r="AJ34" s="12" t="n">
-        <v>1685</v>
+        <v>895</v>
       </c>
       <c r="AK34" s="12" t="n">
-        <v>895</v>
+        <v>1453</v>
       </c>
       <c r="AL34" s="12" t="n">
-        <v>1453</v>
+        <v>1201</v>
       </c>
       <c r="AM34" s="12" t="n">
-        <v>1201</v>
+        <v>1451</v>
       </c>
       <c r="AN34" s="12" t="n">
-        <v>1451</v>
+        <v>1496</v>
       </c>
       <c r="AO34" s="12" t="n">
-        <v>1496</v>
+        <v>2242</v>
       </c>
       <c r="AP34" s="12" t="n">
-        <v>2242</v>
+        <v>1562</v>
       </c>
       <c r="AQ34" s="12" t="n">
-        <v>1562</v>
+        <v>1580</v>
       </c>
       <c r="AR34" s="12" t="n">
-        <v>1580</v>
+        <v>1279</v>
       </c>
       <c r="AS34" s="12" t="n">
-        <v>1279</v>
+        <v>910</v>
       </c>
       <c r="AT34" s="12" t="n">
-        <v>910</v>
+        <v>996</v>
       </c>
       <c r="AU34" s="12" t="n">
-        <v>996</v>
+        <v>1866</v>
       </c>
       <c r="AV34" s="12" t="n">
-        <v>1866</v>
+        <v>1722</v>
       </c>
       <c r="AW34" s="12" t="n">
-        <v>1722</v>
+        <v>1616</v>
       </c>
       <c r="AX34" s="12" t="n">
-        <v>1616</v>
+        <v>1363</v>
       </c>
       <c r="AY34" s="12" t="n">
-        <v>1363</v>
+        <v>929</v>
       </c>
       <c r="AZ34" s="12" t="n">
-        <v>929</v>
+        <v>1029</v>
       </c>
       <c r="BA34" s="12" t="n">
-        <v>1029</v>
+        <v>2355</v>
       </c>
       <c r="BB34" s="12" t="n">
-        <v>2355</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6396,107 +6396,107 @@
       <c r="T35" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U35" s="15" t="s">
-        <v>57</v>
+      <c r="U35" s="15" t="n">
+        <v>2912</v>
       </c>
       <c r="V35" s="15" t="n">
-        <v>2912</v>
+        <v>3247</v>
       </c>
       <c r="W35" s="15" t="n">
-        <v>3247</v>
+        <v>2939</v>
       </c>
       <c r="X35" s="15" t="n">
-        <v>2939</v>
+        <v>2606</v>
       </c>
       <c r="Y35" s="15" t="n">
-        <v>2606</v>
+        <v>2382</v>
       </c>
       <c r="Z35" s="15" t="n">
-        <v>2382</v>
+        <v>2721</v>
       </c>
       <c r="AA35" s="15" t="n">
-        <v>2721</v>
+        <v>2462</v>
       </c>
       <c r="AB35" s="15" t="n">
-        <v>2462</v>
+        <v>1586</v>
       </c>
       <c r="AC35" s="15" t="n">
-        <v>1586</v>
+        <v>2729</v>
       </c>
       <c r="AD35" s="15" t="n">
-        <v>2729</v>
+        <v>3122</v>
       </c>
       <c r="AE35" s="15" t="n">
-        <v>3122</v>
+        <v>3573</v>
       </c>
       <c r="AF35" s="15" t="n">
-        <v>3573</v>
+        <v>2442</v>
       </c>
       <c r="AG35" s="15" t="n">
-        <v>2442</v>
+        <v>2152</v>
       </c>
       <c r="AH35" s="15" t="n">
-        <v>2152</v>
+        <v>1232</v>
       </c>
       <c r="AI35" s="15" t="n">
-        <v>1232</v>
+        <v>2961</v>
       </c>
       <c r="AJ35" s="15" t="n">
-        <v>2961</v>
+        <v>1799</v>
       </c>
       <c r="AK35" s="15" t="n">
-        <v>1799</v>
+        <v>1458</v>
       </c>
       <c r="AL35" s="15" t="n">
-        <v>1458</v>
+        <v>1312</v>
       </c>
       <c r="AM35" s="15" t="n">
-        <v>1312</v>
+        <v>1028</v>
       </c>
       <c r="AN35" s="15" t="n">
-        <v>1028</v>
+        <v>985</v>
       </c>
       <c r="AO35" s="15" t="n">
-        <v>985</v>
+        <v>1412</v>
       </c>
       <c r="AP35" s="15" t="n">
-        <v>1412</v>
+        <v>1381</v>
       </c>
       <c r="AQ35" s="15" t="n">
-        <v>1381</v>
+        <v>1332</v>
       </c>
       <c r="AR35" s="15" t="n">
-        <v>1332</v>
+        <v>1292</v>
       </c>
       <c r="AS35" s="15" t="n">
-        <v>1292</v>
+        <v>586</v>
       </c>
       <c r="AT35" s="15" t="n">
-        <v>586</v>
+        <v>715</v>
       </c>
       <c r="AU35" s="15" t="n">
-        <v>715</v>
+        <v>1016</v>
       </c>
       <c r="AV35" s="15" t="n">
-        <v>1016</v>
+        <v>1406</v>
       </c>
       <c r="AW35" s="15" t="n">
-        <v>1406</v>
+        <v>1167</v>
       </c>
       <c r="AX35" s="15" t="n">
-        <v>1167</v>
+        <v>1696</v>
       </c>
       <c r="AY35" s="15" t="n">
-        <v>1696</v>
+        <v>685</v>
       </c>
       <c r="AZ35" s="15" t="n">
-        <v>685</v>
+        <v>1131</v>
       </c>
       <c r="BA35" s="15" t="n">
-        <v>1131</v>
+        <v>1713</v>
       </c>
       <c r="BB35" s="15" t="n">
-        <v>1713</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6606,56 +6606,56 @@
       <c r="AK36" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AL36" s="12" t="s">
-        <v>57</v>
+      <c r="AL36" s="12" t="n">
+        <v>992</v>
       </c>
       <c r="AM36" s="12" t="n">
-        <v>992</v>
+        <v>1650</v>
       </c>
       <c r="AN36" s="12" t="n">
-        <v>1650</v>
+        <v>1959</v>
       </c>
       <c r="AO36" s="12" t="n">
-        <v>1959</v>
+        <v>1628</v>
       </c>
       <c r="AP36" s="12" t="n">
-        <v>1628</v>
+        <v>1161</v>
       </c>
       <c r="AQ36" s="12" t="n">
-        <v>1161</v>
+        <v>1312</v>
       </c>
       <c r="AR36" s="12" t="n">
-        <v>1312</v>
+        <v>1513</v>
       </c>
       <c r="AS36" s="12" t="n">
-        <v>1513</v>
+        <v>657</v>
       </c>
       <c r="AT36" s="12" t="n">
-        <v>657</v>
+        <v>1510</v>
       </c>
       <c r="AU36" s="12" t="n">
-        <v>1510</v>
+        <v>1499</v>
       </c>
       <c r="AV36" s="12" t="n">
-        <v>1499</v>
+        <v>1383</v>
       </c>
       <c r="AW36" s="12" t="n">
-        <v>1383</v>
+        <v>44</v>
       </c>
       <c r="AX36" s="12" t="n">
-        <v>44</v>
+        <v>579</v>
       </c>
       <c r="AY36" s="12" t="n">
-        <v>579</v>
+        <v>1632</v>
       </c>
       <c r="AZ36" s="12" t="n">
-        <v>1632</v>
+        <v>586</v>
       </c>
       <c r="BA36" s="12" t="n">
-        <v>586</v>
+        <v>1302</v>
       </c>
       <c r="BB36" s="12" t="n">
-        <v>1302</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6713,106 +6713,106 @@
         <v>0</v>
       </c>
       <c r="U37" s="18" t="n">
-        <v>0</v>
+        <v>5198</v>
       </c>
       <c r="V37" s="18" t="n">
-        <v>5198</v>
+        <v>4975</v>
       </c>
       <c r="W37" s="18" t="n">
-        <v>4975</v>
+        <v>4998</v>
       </c>
       <c r="X37" s="18" t="n">
-        <v>4998</v>
+        <v>4512</v>
       </c>
       <c r="Y37" s="18" t="n">
-        <v>4512</v>
+        <v>4046</v>
       </c>
       <c r="Z37" s="18" t="n">
-        <v>4046</v>
+        <v>4353</v>
       </c>
       <c r="AA37" s="18" t="n">
-        <v>4353</v>
+        <v>4500</v>
       </c>
       <c r="AB37" s="18" t="n">
-        <v>4500</v>
+        <v>3581</v>
       </c>
       <c r="AC37" s="18" t="n">
-        <v>3581</v>
+        <v>4463</v>
       </c>
       <c r="AD37" s="18" t="n">
-        <v>4463</v>
+        <v>4651</v>
       </c>
       <c r="AE37" s="18" t="n">
-        <v>4651</v>
+        <v>5079</v>
       </c>
       <c r="AF37" s="18" t="n">
-        <v>5079</v>
+        <v>4525</v>
       </c>
       <c r="AG37" s="18" t="n">
-        <v>4525</v>
+        <v>3716</v>
       </c>
       <c r="AH37" s="18" t="n">
-        <v>3716</v>
+        <v>2586</v>
       </c>
       <c r="AI37" s="18" t="n">
-        <v>2586</v>
+        <v>4701</v>
       </c>
       <c r="AJ37" s="18" t="n">
-        <v>4701</v>
+        <v>2694</v>
       </c>
       <c r="AK37" s="18" t="n">
-        <v>2694</v>
+        <v>2911</v>
       </c>
       <c r="AL37" s="18" t="n">
-        <v>2911</v>
+        <v>3505</v>
       </c>
       <c r="AM37" s="18" t="n">
-        <v>3505</v>
+        <v>4129</v>
       </c>
       <c r="AN37" s="18" t="n">
-        <v>4129</v>
+        <v>4440</v>
       </c>
       <c r="AO37" s="18" t="n">
-        <v>4440</v>
+        <v>5282</v>
       </c>
       <c r="AP37" s="18" t="n">
-        <v>5282</v>
+        <v>4104</v>
       </c>
       <c r="AQ37" s="18" t="n">
-        <v>4104</v>
+        <v>4224</v>
       </c>
       <c r="AR37" s="18" t="n">
-        <v>4224</v>
+        <v>4084</v>
       </c>
       <c r="AS37" s="18" t="n">
-        <v>4084</v>
+        <v>2153</v>
       </c>
       <c r="AT37" s="18" t="n">
-        <v>2153</v>
+        <v>3221</v>
       </c>
       <c r="AU37" s="18" t="n">
-        <v>3221</v>
+        <v>4381</v>
       </c>
       <c r="AV37" s="18" t="n">
-        <v>4381</v>
+        <v>4511</v>
       </c>
       <c r="AW37" s="18" t="n">
-        <v>4511</v>
+        <v>2827</v>
       </c>
       <c r="AX37" s="18" t="n">
-        <v>2827</v>
+        <v>3638</v>
       </c>
       <c r="AY37" s="18" t="n">
-        <v>3638</v>
+        <v>3246</v>
       </c>
       <c r="AZ37" s="18" t="n">
-        <v>3246</v>
+        <v>2746</v>
       </c>
       <c r="BA37" s="18" t="n">
-        <v>2746</v>
+        <v>5370</v>
       </c>
       <c r="BB37" s="18" t="n">
-        <v>5370</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6955,11 +6955,11 @@
       <c r="AC39" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AD39" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE39" s="12" t="n">
-        <v>0</v>
+      <c r="AD39" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="AF39" s="12" t="s">
         <v>57</v>
@@ -6985,14 +6985,14 @@
       <c r="AM39" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AN39" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO39" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP39" s="12" t="s">
-        <v>57</v>
+      <c r="AN39" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP39" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="AQ39" s="12" t="n">
         <v>0</v>
@@ -7114,11 +7114,11 @@
       <c r="AC40" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD40" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE40" s="15" t="n">
-        <v>0</v>
+      <c r="AD40" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="AF40" s="15" t="s">
         <v>57</v>
@@ -7144,14 +7144,14 @@
       <c r="AM40" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AN40" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO40" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP40" s="15" t="s">
-        <v>57</v>
+      <c r="AN40" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP40" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AQ40" s="15" t="n">
         <v>0</v>
@@ -7485,11 +7485,11 @@
       <c r="AC43" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AD43" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE43" s="12" t="n">
-        <v>0</v>
+      <c r="AD43" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="AF43" s="12" t="s">
         <v>57</v>
@@ -7515,11 +7515,11 @@
       <c r="AM43" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AN43" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO43" s="12" t="n">
-        <v>0</v>
+      <c r="AN43" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="AP43" s="12" t="s">
         <v>57</v>
@@ -7642,11 +7642,11 @@
       <c r="AC44" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD44" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE44" s="15" t="n">
-        <v>0</v>
+      <c r="AD44" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="AF44" s="15" t="s">
         <v>57</v>
@@ -7672,11 +7672,11 @@
       <c r="AM44" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AN44" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO44" s="15" t="n">
-        <v>0</v>
+      <c r="AN44" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="AP44" s="15" t="s">
         <v>57</v>
@@ -7772,8 +7772,8 @@
       <c r="T45" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U45" s="20" t="s">
-        <v>57</v>
+      <c r="U45" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V45" s="20" t="n">
         <v>0</v>
@@ -7986,8 +7986,8 @@
       <c r="T47" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U47" s="20" t="s">
-        <v>57</v>
+      <c r="U47" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V47" s="20" t="n">
         <v>0</v>
@@ -8144,106 +8144,106 @@
         <v>0</v>
       </c>
       <c r="U48" s="18" t="n">
-        <v>0</v>
+        <v>5198</v>
       </c>
       <c r="V48" s="18" t="n">
-        <v>5198</v>
+        <v>4975</v>
       </c>
       <c r="W48" s="18" t="n">
-        <v>4975</v>
+        <v>4998</v>
       </c>
       <c r="X48" s="18" t="n">
-        <v>4998</v>
+        <v>4512</v>
       </c>
       <c r="Y48" s="18" t="n">
-        <v>4512</v>
+        <v>4046</v>
       </c>
       <c r="Z48" s="18" t="n">
-        <v>4046</v>
+        <v>4353</v>
       </c>
       <c r="AA48" s="18" t="n">
-        <v>4353</v>
+        <v>4500</v>
       </c>
       <c r="AB48" s="18" t="n">
-        <v>4500</v>
+        <v>3581</v>
       </c>
       <c r="AC48" s="18" t="n">
-        <v>3581</v>
+        <v>4463</v>
       </c>
       <c r="AD48" s="18" t="n">
-        <v>4463</v>
+        <v>4651</v>
       </c>
       <c r="AE48" s="18" t="n">
-        <v>4651</v>
+        <v>5079</v>
       </c>
       <c r="AF48" s="18" t="n">
-        <v>5079</v>
+        <v>4525</v>
       </c>
       <c r="AG48" s="18" t="n">
-        <v>4525</v>
+        <v>3716</v>
       </c>
       <c r="AH48" s="18" t="n">
-        <v>3716</v>
+        <v>2586</v>
       </c>
       <c r="AI48" s="18" t="n">
-        <v>2586</v>
+        <v>4701</v>
       </c>
       <c r="AJ48" s="18" t="n">
-        <v>4701</v>
+        <v>2694</v>
       </c>
       <c r="AK48" s="18" t="n">
-        <v>2694</v>
+        <v>2911</v>
       </c>
       <c r="AL48" s="18" t="n">
-        <v>2911</v>
+        <v>3505</v>
       </c>
       <c r="AM48" s="18" t="n">
-        <v>3505</v>
+        <v>4129</v>
       </c>
       <c r="AN48" s="18" t="n">
-        <v>4129</v>
+        <v>4440</v>
       </c>
       <c r="AO48" s="18" t="n">
-        <v>4440</v>
+        <v>5282</v>
       </c>
       <c r="AP48" s="18" t="n">
-        <v>5282</v>
+        <v>4104</v>
       </c>
       <c r="AQ48" s="18" t="n">
-        <v>4104</v>
+        <v>4224</v>
       </c>
       <c r="AR48" s="18" t="n">
-        <v>4224</v>
+        <v>4084</v>
       </c>
       <c r="AS48" s="18" t="n">
-        <v>4084</v>
+        <v>2153</v>
       </c>
       <c r="AT48" s="18" t="n">
-        <v>2153</v>
+        <v>3221</v>
       </c>
       <c r="AU48" s="18" t="n">
-        <v>3221</v>
+        <v>4381</v>
       </c>
       <c r="AV48" s="18" t="n">
-        <v>4381</v>
+        <v>4511</v>
       </c>
       <c r="AW48" s="18" t="n">
-        <v>4511</v>
+        <v>2827</v>
       </c>
       <c r="AX48" s="18" t="n">
-        <v>2827</v>
+        <v>3638</v>
       </c>
       <c r="AY48" s="18" t="n">
-        <v>3638</v>
+        <v>3246</v>
       </c>
       <c r="AZ48" s="18" t="n">
-        <v>3246</v>
+        <v>2746</v>
       </c>
       <c r="BA48" s="18" t="n">
-        <v>2746</v>
+        <v>5370</v>
       </c>
       <c r="BB48" s="18" t="n">
-        <v>5370</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8763,80 +8763,80 @@
       <c r="AC55" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AD55" s="12" t="s">
-        <v>57</v>
+      <c r="AD55" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="AE55" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AF55" s="12" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="AG55" s="12" t="n">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="AH55" s="12" t="n">
-        <v>0</v>
+        <v>3209</v>
       </c>
       <c r="AI55" s="12" t="n">
-        <v>3209</v>
+        <v>699</v>
       </c>
       <c r="AJ55" s="12" t="n">
-        <v>699</v>
+        <v>2268</v>
       </c>
       <c r="AK55" s="12" t="n">
-        <v>2268</v>
+        <v>67</v>
       </c>
       <c r="AL55" s="12" t="n">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="AM55" s="12" t="n">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="AN55" s="12" t="n">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="AO55" s="12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AP55" s="12" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="AQ55" s="12" t="n">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="AR55" s="12" t="n">
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="AS55" s="12" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AT55" s="12" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AU55" s="12" t="n">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="AV55" s="12" t="n">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="AW55" s="12" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AX55" s="12" t="n">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="AY55" s="12" t="n">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="AZ55" s="12" t="n">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="BA55" s="12" t="n">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="BB55" s="12" t="n">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8895,35 +8895,35 @@
       <c r="T56" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U56" s="15" t="s">
-        <v>57</v>
+      <c r="U56" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="V56" s="15" t="n">
-        <v>0</v>
+        <v>23500</v>
       </c>
       <c r="W56" s="15" t="n">
-        <v>23500</v>
+        <v>17</v>
       </c>
       <c r="X56" s="15" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Y56" s="15" t="n">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="Z56" s="15" t="n">
-        <v>107</v>
+        <v>8360</v>
       </c>
       <c r="AA56" s="15" t="n">
-        <v>8360</v>
+        <v>1878</v>
       </c>
       <c r="AB56" s="15" t="n">
-        <v>1878</v>
+        <v>56</v>
       </c>
       <c r="AC56" s="15" t="n">
-        <v>56</v>
-      </c>
-      <c r="AD56" s="15" t="n">
         <v>80</v>
+      </c>
+      <c r="AD56" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="AE56" s="15" t="s">
         <v>57</v>
@@ -9054,107 +9054,107 @@
       <c r="T57" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="U57" s="12" t="s">
-        <v>57</v>
+      <c r="U57" s="12" t="n">
+        <v>95548</v>
       </c>
       <c r="V57" s="12" t="n">
-        <v>95548</v>
+        <v>82113</v>
       </c>
       <c r="W57" s="12" t="n">
-        <v>82113</v>
+        <v>96648</v>
       </c>
       <c r="X57" s="12" t="n">
-        <v>96648</v>
+        <v>93449</v>
       </c>
       <c r="Y57" s="12" t="n">
-        <v>93449</v>
+        <v>78069</v>
       </c>
       <c r="Z57" s="12" t="n">
-        <v>78069</v>
+        <v>87642</v>
       </c>
       <c r="AA57" s="12" t="n">
-        <v>87642</v>
+        <v>113109</v>
       </c>
       <c r="AB57" s="12" t="n">
-        <v>113109</v>
+        <v>106505</v>
       </c>
       <c r="AC57" s="12" t="n">
-        <v>106505</v>
+        <v>88485</v>
       </c>
       <c r="AD57" s="12" t="n">
-        <v>88485</v>
+        <v>100316</v>
       </c>
       <c r="AE57" s="12" t="n">
-        <v>100316</v>
+        <v>121252</v>
       </c>
       <c r="AF57" s="12" t="n">
-        <v>121252</v>
+        <v>163838</v>
       </c>
       <c r="AG57" s="12" t="n">
-        <v>163838</v>
+        <v>132081</v>
       </c>
       <c r="AH57" s="12" t="n">
-        <v>132081</v>
+        <v>93840</v>
       </c>
       <c r="AI57" s="12" t="n">
-        <v>93840</v>
+        <v>144235</v>
       </c>
       <c r="AJ57" s="12" t="n">
-        <v>144235</v>
+        <v>84545</v>
       </c>
       <c r="AK57" s="12" t="n">
-        <v>84545</v>
+        <v>112058</v>
       </c>
       <c r="AL57" s="12" t="n">
-        <v>112058</v>
+        <v>121188</v>
       </c>
       <c r="AM57" s="12" t="n">
-        <v>121188</v>
+        <v>205854</v>
       </c>
       <c r="AN57" s="12" t="n">
-        <v>205854</v>
+        <v>198388</v>
       </c>
       <c r="AO57" s="12" t="n">
-        <v>198388</v>
+        <v>247488</v>
       </c>
       <c r="AP57" s="12" t="n">
-        <v>247488</v>
+        <v>231122</v>
       </c>
       <c r="AQ57" s="12" t="n">
-        <v>231122</v>
+        <v>249075</v>
       </c>
       <c r="AR57" s="12" t="n">
-        <v>249075</v>
+        <v>184744</v>
       </c>
       <c r="AS57" s="12" t="n">
-        <v>184744</v>
+        <v>129067</v>
       </c>
       <c r="AT57" s="12" t="n">
-        <v>129067</v>
+        <v>143575</v>
       </c>
       <c r="AU57" s="12" t="n">
-        <v>143575</v>
+        <v>280420</v>
       </c>
       <c r="AV57" s="12" t="n">
-        <v>280420</v>
+        <v>262114</v>
       </c>
       <c r="AW57" s="12" t="n">
-        <v>262114</v>
+        <v>241008</v>
       </c>
       <c r="AX57" s="12" t="n">
-        <v>241008</v>
+        <v>198431</v>
       </c>
       <c r="AY57" s="12" t="n">
-        <v>198431</v>
+        <v>146356</v>
       </c>
       <c r="AZ57" s="12" t="n">
-        <v>146356</v>
+        <v>158671</v>
       </c>
       <c r="BA57" s="12" t="n">
-        <v>158671</v>
+        <v>371910</v>
       </c>
       <c r="BB57" s="12" t="n">
-        <v>371910</v>
+        <v>257172</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9213,107 +9213,107 @@
       <c r="T58" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U58" s="15" t="s">
-        <v>57</v>
+      <c r="U58" s="15" t="n">
+        <v>82971</v>
       </c>
       <c r="V58" s="15" t="n">
-        <v>82971</v>
+        <v>102665</v>
       </c>
       <c r="W58" s="15" t="n">
-        <v>102665</v>
+        <v>121223</v>
       </c>
       <c r="X58" s="15" t="n">
-        <v>121223</v>
+        <v>84959</v>
       </c>
       <c r="Y58" s="15" t="n">
-        <v>84959</v>
+        <v>79579</v>
       </c>
       <c r="Z58" s="15" t="n">
-        <v>79579</v>
+        <v>99804</v>
       </c>
       <c r="AA58" s="15" t="n">
-        <v>99804</v>
+        <v>84884</v>
       </c>
       <c r="AB58" s="15" t="n">
-        <v>84884</v>
+        <v>55835</v>
       </c>
       <c r="AC58" s="15" t="n">
-        <v>55835</v>
+        <v>98828</v>
       </c>
       <c r="AD58" s="15" t="n">
-        <v>98828</v>
+        <v>165657</v>
       </c>
       <c r="AE58" s="15" t="n">
-        <v>165657</v>
+        <v>179585</v>
       </c>
       <c r="AF58" s="15" t="n">
-        <v>179585</v>
+        <v>115945</v>
       </c>
       <c r="AG58" s="15" t="n">
-        <v>115945</v>
+        <v>115065</v>
       </c>
       <c r="AH58" s="15" t="n">
-        <v>115065</v>
+        <v>61421</v>
       </c>
       <c r="AI58" s="15" t="n">
-        <v>61421</v>
+        <v>135126</v>
       </c>
       <c r="AJ58" s="15" t="n">
-        <v>135126</v>
+        <v>71677</v>
       </c>
       <c r="AK58" s="15" t="n">
-        <v>71677</v>
+        <v>65301</v>
       </c>
       <c r="AL58" s="15" t="n">
-        <v>65301</v>
+        <v>98477</v>
       </c>
       <c r="AM58" s="15" t="n">
-        <v>98477</v>
+        <v>74436</v>
       </c>
       <c r="AN58" s="15" t="n">
-        <v>74436</v>
+        <v>73649</v>
       </c>
       <c r="AO58" s="15" t="n">
-        <v>73649</v>
+        <v>96443</v>
       </c>
       <c r="AP58" s="15" t="n">
-        <v>96443</v>
+        <v>136975</v>
       </c>
       <c r="AQ58" s="15" t="n">
-        <v>136975</v>
+        <v>132620</v>
       </c>
       <c r="AR58" s="15" t="n">
-        <v>132620</v>
+        <v>128120</v>
       </c>
       <c r="AS58" s="15" t="n">
-        <v>128120</v>
+        <v>62055</v>
       </c>
       <c r="AT58" s="15" t="n">
-        <v>62055</v>
+        <v>68661</v>
       </c>
       <c r="AU58" s="15" t="n">
-        <v>68661</v>
+        <v>96641</v>
       </c>
       <c r="AV58" s="15" t="n">
-        <v>96641</v>
+        <v>136364</v>
       </c>
       <c r="AW58" s="15" t="n">
-        <v>136364</v>
+        <v>113045</v>
       </c>
       <c r="AX58" s="15" t="n">
-        <v>113045</v>
+        <v>162370</v>
       </c>
       <c r="AY58" s="15" t="n">
-        <v>162370</v>
+        <v>71304</v>
       </c>
       <c r="AZ58" s="15" t="n">
-        <v>71304</v>
+        <v>111970</v>
       </c>
       <c r="BA58" s="15" t="n">
-        <v>111970</v>
+        <v>174162</v>
       </c>
       <c r="BB58" s="15" t="n">
-        <v>174162</v>
+        <v>154821</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9423,56 +9423,56 @@
       <c r="AK59" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AL59" s="12" t="s">
-        <v>57</v>
+      <c r="AL59" s="12" t="n">
+        <v>10914</v>
       </c>
       <c r="AM59" s="12" t="n">
-        <v>10914</v>
+        <v>18152</v>
       </c>
       <c r="AN59" s="12" t="n">
-        <v>18152</v>
+        <v>21550</v>
       </c>
       <c r="AO59" s="12" t="n">
-        <v>21550</v>
+        <v>17904</v>
       </c>
       <c r="AP59" s="12" t="n">
-        <v>17904</v>
+        <v>17299</v>
       </c>
       <c r="AQ59" s="12" t="n">
-        <v>17299</v>
+        <v>19557</v>
       </c>
       <c r="AR59" s="12" t="n">
-        <v>19557</v>
+        <v>22545</v>
       </c>
       <c r="AS59" s="12" t="n">
-        <v>22545</v>
+        <v>9790</v>
       </c>
       <c r="AT59" s="12" t="n">
-        <v>9790</v>
+        <v>22505</v>
       </c>
       <c r="AU59" s="12" t="n">
-        <v>22505</v>
+        <v>22342</v>
       </c>
       <c r="AV59" s="12" t="n">
-        <v>22342</v>
+        <v>20610</v>
       </c>
       <c r="AW59" s="12" t="n">
-        <v>20610</v>
+        <v>2210</v>
       </c>
       <c r="AX59" s="12" t="n">
-        <v>2210</v>
+        <v>11289</v>
       </c>
       <c r="AY59" s="12" t="n">
-        <v>11289</v>
+        <v>31819</v>
       </c>
       <c r="AZ59" s="12" t="n">
-        <v>31819</v>
+        <v>11437</v>
       </c>
       <c r="BA59" s="12" t="n">
-        <v>11437</v>
+        <v>25397</v>
       </c>
       <c r="BB59" s="12" t="n">
-        <v>25397</v>
+        <v>32089</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9530,106 +9530,106 @@
         <v>0</v>
       </c>
       <c r="U60" s="18" t="n">
-        <v>0</v>
+        <v>178519</v>
       </c>
       <c r="V60" s="18" t="n">
-        <v>178519</v>
+        <v>208278</v>
       </c>
       <c r="W60" s="18" t="n">
-        <v>208278</v>
+        <v>217888</v>
       </c>
       <c r="X60" s="18" t="n">
-        <v>217888</v>
+        <v>178438</v>
       </c>
       <c r="Y60" s="18" t="n">
-        <v>178438</v>
+        <v>157755</v>
       </c>
       <c r="Z60" s="18" t="n">
-        <v>157755</v>
+        <v>195806</v>
       </c>
       <c r="AA60" s="18" t="n">
-        <v>195806</v>
+        <v>199871</v>
       </c>
       <c r="AB60" s="18" t="n">
-        <v>199871</v>
+        <v>162396</v>
       </c>
       <c r="AC60" s="18" t="n">
-        <v>162396</v>
+        <v>187393</v>
       </c>
       <c r="AD60" s="18" t="n">
-        <v>187393</v>
+        <v>265973</v>
       </c>
       <c r="AE60" s="18" t="n">
-        <v>265973</v>
+        <v>300837</v>
       </c>
       <c r="AF60" s="18" t="n">
-        <v>300837</v>
+        <v>280015</v>
       </c>
       <c r="AG60" s="18" t="n">
-        <v>280015</v>
+        <v>247146</v>
       </c>
       <c r="AH60" s="18" t="n">
-        <v>247146</v>
+        <v>158470</v>
       </c>
       <c r="AI60" s="18" t="n">
-        <v>158470</v>
+        <v>280060</v>
       </c>
       <c r="AJ60" s="18" t="n">
-        <v>280060</v>
+        <v>158490</v>
       </c>
       <c r="AK60" s="18" t="n">
-        <v>158490</v>
+        <v>177426</v>
       </c>
       <c r="AL60" s="18" t="n">
-        <v>177426</v>
+        <v>230683</v>
       </c>
       <c r="AM60" s="18" t="n">
-        <v>230683</v>
+        <v>298529</v>
       </c>
       <c r="AN60" s="18" t="n">
-        <v>298529</v>
+        <v>293588</v>
       </c>
       <c r="AO60" s="18" t="n">
-        <v>293588</v>
+        <v>361844</v>
       </c>
       <c r="AP60" s="18" t="n">
-        <v>361844</v>
+        <v>385436</v>
       </c>
       <c r="AQ60" s="18" t="n">
-        <v>385436</v>
+        <v>401369</v>
       </c>
       <c r="AR60" s="18" t="n">
-        <v>401369</v>
+        <v>335413</v>
       </c>
       <c r="AS60" s="18" t="n">
-        <v>335413</v>
+        <v>200936</v>
       </c>
       <c r="AT60" s="18" t="n">
-        <v>200936</v>
+        <v>234768</v>
       </c>
       <c r="AU60" s="18" t="n">
-        <v>234768</v>
+        <v>399471</v>
       </c>
       <c r="AV60" s="18" t="n">
-        <v>399471</v>
+        <v>419118</v>
       </c>
       <c r="AW60" s="18" t="n">
-        <v>419118</v>
+        <v>356289</v>
       </c>
       <c r="AX60" s="18" t="n">
-        <v>356289</v>
+        <v>372153</v>
       </c>
       <c r="AY60" s="18" t="n">
-        <v>372153</v>
+        <v>249492</v>
       </c>
       <c r="AZ60" s="18" t="n">
-        <v>249492</v>
+        <v>282276</v>
       </c>
       <c r="BA60" s="18" t="n">
-        <v>282276</v>
+        <v>571505</v>
       </c>
       <c r="BB60" s="18" t="n">
-        <v>571505</v>
+        <v>444143</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9772,8 +9772,8 @@
       <c r="AC62" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AD62" s="12" t="s">
-        <v>57</v>
+      <c r="AD62" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="AE62" s="12" t="n">
         <v>0</v>
@@ -9931,8 +9931,8 @@
       <c r="AC63" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD63" s="15" t="s">
-        <v>57</v>
+      <c r="AD63" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AE63" s="15" t="n">
         <v>0</v>
@@ -10304,8 +10304,8 @@
       <c r="AC66" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AD66" s="12" t="s">
-        <v>57</v>
+      <c r="AD66" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="AE66" s="12" t="n">
         <v>0</v>
@@ -10463,8 +10463,8 @@
       <c r="AC67" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD67" s="15" t="s">
-        <v>57</v>
+      <c r="AD67" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AE67" s="15" t="n">
         <v>0</v>
@@ -10595,8 +10595,8 @@
       <c r="T68" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U68" s="20" t="s">
-        <v>57</v>
+      <c r="U68" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V68" s="23" t="n">
         <v>0</v>
@@ -10811,8 +10811,8 @@
       <c r="T70" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U70" s="20" t="s">
-        <v>57</v>
+      <c r="U70" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V70" s="23" t="n">
         <v>0</v>
@@ -11027,8 +11027,8 @@
       <c r="T72" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="U72" s="12" t="s">
-        <v>57</v>
+      <c r="U72" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="V72" s="12" t="n">
         <v>0</v>
@@ -11185,106 +11185,106 @@
         <v>0</v>
       </c>
       <c r="U73" s="18" t="n">
-        <v>0</v>
+        <v>178519</v>
       </c>
       <c r="V73" s="18" t="n">
-        <v>178519</v>
+        <v>208278</v>
       </c>
       <c r="W73" s="18" t="n">
-        <v>208278</v>
+        <v>217888</v>
       </c>
       <c r="X73" s="18" t="n">
-        <v>217888</v>
+        <v>178438</v>
       </c>
       <c r="Y73" s="18" t="n">
-        <v>178438</v>
+        <v>157755</v>
       </c>
       <c r="Z73" s="18" t="n">
-        <v>157755</v>
+        <v>195806</v>
       </c>
       <c r="AA73" s="18" t="n">
-        <v>195806</v>
+        <v>199871</v>
       </c>
       <c r="AB73" s="18" t="n">
-        <v>199871</v>
+        <v>162396</v>
       </c>
       <c r="AC73" s="18" t="n">
-        <v>162396</v>
+        <v>187393</v>
       </c>
       <c r="AD73" s="18" t="n">
-        <v>187393</v>
+        <v>265973</v>
       </c>
       <c r="AE73" s="18" t="n">
-        <v>265973</v>
+        <v>300837</v>
       </c>
       <c r="AF73" s="18" t="n">
-        <v>300837</v>
+        <v>280015</v>
       </c>
       <c r="AG73" s="18" t="n">
-        <v>280015</v>
+        <v>247146</v>
       </c>
       <c r="AH73" s="18" t="n">
-        <v>247146</v>
+        <v>158470</v>
       </c>
       <c r="AI73" s="18" t="n">
-        <v>158470</v>
+        <v>280060</v>
       </c>
       <c r="AJ73" s="18" t="n">
-        <v>280060</v>
+        <v>158490</v>
       </c>
       <c r="AK73" s="18" t="n">
-        <v>158490</v>
+        <v>177426</v>
       </c>
       <c r="AL73" s="18" t="n">
-        <v>177426</v>
+        <v>230683</v>
       </c>
       <c r="AM73" s="18" t="n">
-        <v>230683</v>
+        <v>298529</v>
       </c>
       <c r="AN73" s="18" t="n">
-        <v>298529</v>
+        <v>293588</v>
       </c>
       <c r="AO73" s="18" t="n">
-        <v>293588</v>
+        <v>361844</v>
       </c>
       <c r="AP73" s="18" t="n">
-        <v>361844</v>
+        <v>385436</v>
       </c>
       <c r="AQ73" s="18" t="n">
-        <v>385436</v>
+        <v>401369</v>
       </c>
       <c r="AR73" s="18" t="n">
-        <v>401369</v>
+        <v>335413</v>
       </c>
       <c r="AS73" s="18" t="n">
-        <v>335413</v>
+        <v>200936</v>
       </c>
       <c r="AT73" s="18" t="n">
-        <v>200936</v>
+        <v>234768</v>
       </c>
       <c r="AU73" s="18" t="n">
-        <v>234768</v>
+        <v>399471</v>
       </c>
       <c r="AV73" s="18" t="n">
-        <v>399471</v>
+        <v>419118</v>
       </c>
       <c r="AW73" s="18" t="n">
-        <v>419118</v>
+        <v>356289</v>
       </c>
       <c r="AX73" s="18" t="n">
-        <v>356289</v>
+        <v>372153</v>
       </c>
       <c r="AY73" s="18" t="n">
-        <v>372153</v>
+        <v>249492</v>
       </c>
       <c r="AZ73" s="18" t="n">
-        <v>249492</v>
+        <v>282276</v>
       </c>
       <c r="BA73" s="18" t="n">
-        <v>282276</v>
+        <v>571505</v>
       </c>
       <c r="BB73" s="18" t="n">
-        <v>571505</v>
+        <v>444143</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11816,14 +11816,14 @@
       <c r="AG80" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AH80" s="12" t="s">
-        <v>57</v>
+      <c r="AH80" s="12" t="n">
+        <v>16978836</v>
       </c>
       <c r="AI80" s="12" t="n">
-        <v>16978836</v>
-      </c>
-      <c r="AJ80" s="12" t="n">
         <v>12709091</v>
+      </c>
+      <c r="AJ80" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="AK80" s="12" t="s">
         <v>57</v>
@@ -11936,107 +11936,107 @@
       <c r="T81" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U81" s="15" t="s">
-        <v>57</v>
+      <c r="U81" s="15" t="n">
+        <v>41797025</v>
       </c>
       <c r="V81" s="15" t="n">
-        <v>41797025</v>
+        <v>47519097</v>
       </c>
       <c r="W81" s="15" t="n">
-        <v>47519097</v>
+        <v>46939291</v>
       </c>
       <c r="X81" s="15" t="n">
-        <v>46939291</v>
+        <v>49028856</v>
       </c>
       <c r="Y81" s="15" t="n">
-        <v>49028856</v>
+        <v>46916466</v>
       </c>
       <c r="Z81" s="15" t="n">
-        <v>46916466</v>
+        <v>53702206</v>
       </c>
       <c r="AA81" s="15" t="n">
-        <v>53702206</v>
+        <v>55500000</v>
       </c>
       <c r="AB81" s="15" t="n">
-        <v>55500000</v>
+        <v>53385965</v>
       </c>
       <c r="AC81" s="15" t="n">
-        <v>53385965</v>
+        <v>51029412</v>
       </c>
       <c r="AD81" s="15" t="n">
-        <v>51029412</v>
+        <v>65608895</v>
       </c>
       <c r="AE81" s="15" t="n">
-        <v>65608895</v>
+        <v>80512616</v>
       </c>
       <c r="AF81" s="15" t="n">
-        <v>80512616</v>
+        <v>78654825</v>
       </c>
       <c r="AG81" s="15" t="n">
-        <v>78654825</v>
+        <v>84450767</v>
       </c>
       <c r="AH81" s="15" t="n">
-        <v>84450767</v>
+        <v>80549356</v>
       </c>
       <c r="AI81" s="15" t="n">
-        <v>80549356</v>
+        <v>85599407</v>
       </c>
       <c r="AJ81" s="15" t="n">
-        <v>85599407</v>
+        <v>94463687</v>
       </c>
       <c r="AK81" s="15" t="n">
-        <v>94463687</v>
+        <v>77121817</v>
       </c>
       <c r="AL81" s="15" t="n">
-        <v>77121817</v>
+        <v>100905912</v>
       </c>
       <c r="AM81" s="15" t="n">
-        <v>100905912</v>
+        <v>141870434</v>
       </c>
       <c r="AN81" s="15" t="n">
-        <v>141870434</v>
+        <v>132612299</v>
       </c>
       <c r="AO81" s="15" t="n">
-        <v>132612299</v>
+        <v>110387154</v>
       </c>
       <c r="AP81" s="15" t="n">
-        <v>110387154</v>
+        <v>147965429</v>
       </c>
       <c r="AQ81" s="15" t="n">
-        <v>147965429</v>
+        <v>157642405</v>
       </c>
       <c r="AR81" s="15" t="n">
-        <v>157642405</v>
+        <v>144444097</v>
       </c>
       <c r="AS81" s="15" t="n">
-        <v>144444097</v>
+        <v>141831868</v>
       </c>
       <c r="AT81" s="15" t="n">
-        <v>141831868</v>
+        <v>144151606</v>
       </c>
       <c r="AU81" s="15" t="n">
-        <v>144151606</v>
+        <v>150278671</v>
       </c>
       <c r="AV81" s="15" t="n">
-        <v>150278671</v>
+        <v>152214866</v>
       </c>
       <c r="AW81" s="15" t="n">
-        <v>152214866</v>
+        <v>149138614</v>
       </c>
       <c r="AX81" s="15" t="n">
-        <v>149138614</v>
+        <v>145584006</v>
       </c>
       <c r="AY81" s="15" t="n">
-        <v>145584006</v>
+        <v>157541442</v>
       </c>
       <c r="AZ81" s="15" t="n">
-        <v>157541442</v>
+        <v>154199223</v>
       </c>
       <c r="BA81" s="15" t="n">
-        <v>154199223</v>
+        <v>157923567</v>
       </c>
       <c r="BB81" s="15" t="n">
-        <v>157923567</v>
+        <v>176872077</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12095,107 +12095,107 @@
       <c r="T82" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="U82" s="12" t="s">
-        <v>57</v>
+      <c r="U82" s="12" t="n">
+        <v>28492788</v>
       </c>
       <c r="V82" s="12" t="n">
-        <v>28492788</v>
+        <v>31618417</v>
       </c>
       <c r="W82" s="12" t="n">
-        <v>31618417</v>
+        <v>41246342</v>
       </c>
       <c r="X82" s="12" t="n">
-        <v>41246342</v>
+        <v>32601305</v>
       </c>
       <c r="Y82" s="12" t="n">
-        <v>32601305</v>
+        <v>33408480</v>
       </c>
       <c r="Z82" s="12" t="n">
-        <v>33408480</v>
+        <v>36679162</v>
       </c>
       <c r="AA82" s="12" t="n">
-        <v>36679162</v>
+        <v>34477660</v>
       </c>
       <c r="AB82" s="12" t="n">
-        <v>34477660</v>
+        <v>35204918</v>
       </c>
       <c r="AC82" s="12" t="n">
-        <v>35204918</v>
+        <v>36213998</v>
       </c>
       <c r="AD82" s="12" t="n">
-        <v>36213998</v>
+        <v>53061179</v>
       </c>
       <c r="AE82" s="12" t="n">
-        <v>53061179</v>
+        <v>50261685</v>
       </c>
       <c r="AF82" s="12" t="n">
-        <v>50261685</v>
+        <v>47479525</v>
       </c>
       <c r="AG82" s="12" t="n">
-        <v>47479525</v>
+        <v>53468866</v>
       </c>
       <c r="AH82" s="12" t="n">
-        <v>53468866</v>
+        <v>49854708</v>
       </c>
       <c r="AI82" s="12" t="n">
-        <v>49854708</v>
+        <v>45635258</v>
       </c>
       <c r="AJ82" s="12" t="n">
-        <v>45635258</v>
+        <v>39842690</v>
       </c>
       <c r="AK82" s="12" t="n">
-        <v>39842690</v>
+        <v>44788066</v>
       </c>
       <c r="AL82" s="12" t="n">
-        <v>44788066</v>
+        <v>75058689</v>
       </c>
       <c r="AM82" s="12" t="n">
-        <v>75058689</v>
+        <v>72408560</v>
       </c>
       <c r="AN82" s="12" t="n">
-        <v>72408560</v>
+        <v>74770558</v>
       </c>
       <c r="AO82" s="12" t="n">
-        <v>74770558</v>
+        <v>68302408</v>
       </c>
       <c r="AP82" s="12" t="n">
-        <v>68302408</v>
+        <v>99185373</v>
       </c>
       <c r="AQ82" s="12" t="n">
-        <v>99185373</v>
+        <v>99564565</v>
       </c>
       <c r="AR82" s="12" t="n">
-        <v>99564565</v>
+        <v>99164087</v>
       </c>
       <c r="AS82" s="12" t="n">
-        <v>99164087</v>
+        <v>105895904</v>
       </c>
       <c r="AT82" s="12" t="n">
-        <v>105895904</v>
+        <v>96029371</v>
       </c>
       <c r="AU82" s="12" t="n">
-        <v>96029371</v>
+        <v>95119094</v>
       </c>
       <c r="AV82" s="12" t="n">
-        <v>95119094</v>
+        <v>96987198</v>
       </c>
       <c r="AW82" s="12" t="n">
-        <v>96987198</v>
+        <v>96868038</v>
       </c>
       <c r="AX82" s="12" t="n">
-        <v>96868038</v>
+        <v>95737028</v>
       </c>
       <c r="AY82" s="12" t="n">
-        <v>95737028</v>
+        <v>104093431</v>
       </c>
       <c r="AZ82" s="12" t="n">
-        <v>104093431</v>
+        <v>99000884</v>
       </c>
       <c r="BA82" s="12" t="n">
-        <v>99000884</v>
+        <v>101670753</v>
       </c>
       <c r="BB82" s="12" t="n">
-        <v>101670753</v>
+        <v>97494332</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12305,56 +12305,56 @@
       <c r="AK83" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AL83" s="15" t="s">
-        <v>57</v>
+      <c r="AL83" s="15" t="n">
+        <v>11002016</v>
       </c>
       <c r="AM83" s="15" t="n">
-        <v>11002016</v>
+        <v>11001212</v>
       </c>
       <c r="AN83" s="15" t="n">
-        <v>11001212</v>
+        <v>11000510</v>
       </c>
       <c r="AO83" s="15" t="n">
-        <v>11000510</v>
+        <v>10997543</v>
       </c>
       <c r="AP83" s="15" t="n">
-        <v>10997543</v>
+        <v>14900086</v>
       </c>
       <c r="AQ83" s="15" t="n">
-        <v>14900086</v>
+        <v>14906250</v>
       </c>
       <c r="AR83" s="15" t="n">
-        <v>14906250</v>
+        <v>14900859</v>
       </c>
       <c r="AS83" s="15" t="n">
-        <v>14900859</v>
+        <v>14901065</v>
       </c>
       <c r="AT83" s="15" t="n">
-        <v>14901065</v>
+        <v>14903974</v>
       </c>
       <c r="AU83" s="15" t="n">
-        <v>14903974</v>
+        <v>14904603</v>
       </c>
       <c r="AV83" s="15" t="n">
-        <v>14904603</v>
+        <v>14902386</v>
       </c>
       <c r="AW83" s="15" t="n">
-        <v>14902386</v>
+        <v>50227273</v>
       </c>
       <c r="AX83" s="15" t="n">
-        <v>50227273</v>
+        <v>19497409</v>
       </c>
       <c r="AY83" s="15" t="n">
-        <v>19497409</v>
+        <v>19496936</v>
       </c>
       <c r="AZ83" s="15" t="n">
-        <v>19496936</v>
+        <v>19517065</v>
       </c>
       <c r="BA83" s="15" t="n">
-        <v>19517065</v>
+        <v>19506144</v>
       </c>
       <c r="BB83" s="15" t="n">
-        <v>19506144</v>
+        <v>21993831</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12497,8 +12497,8 @@
       <c r="AC85" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AD85" s="12" t="s">
-        <v>57</v>
+      <c r="AD85" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="AE85" s="12" t="n">
         <v>0</v>
@@ -12656,8 +12656,8 @@
       <c r="AC86" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AD86" s="15" t="s">
-        <v>57</v>
+      <c r="AD86" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AE86" s="15" t="n">
         <v>0</v>
